--- a/STM32（六）DMA.xlsx
+++ b/STM32（六）DMA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>STM32</t>
   </si>
@@ -94,6 +94,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当用户将参数设置好，主要涉及</t>
     </r>
     <r>
@@ -132,6 +139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF23263B"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -309,14 +322,50 @@
   <si>
     <t>第三十讲：IIC总线介绍</t>
   </si>
+  <si>
+    <t>IIC介绍：</t>
+  </si>
+  <si>
+    <t>两根线，一个时钟一个数据，是一种同步通信方式。</t>
+  </si>
+  <si>
+    <t>物理层：</t>
+  </si>
+  <si>
+    <t>两根线挂一堆设备</t>
+  </si>
+  <si>
+    <t>⑴支持多设备挂总线上</t>
+  </si>
+  <si>
+    <t>⑵两条线，一个时钟一个数据</t>
+  </si>
+  <si>
+    <t>⑶每个设备都有地址，通过地址找设备</t>
+  </si>
+  <si>
+    <t>⑷空闲时让总线为高电平</t>
+  </si>
+  <si>
+    <t>⑸多个主机同时使用有仲裁机制</t>
+  </si>
+  <si>
+    <t>⑹有标准，快速，高速三种模式</t>
+  </si>
+  <si>
+    <t>⑺挂接设备数量受限于最大电容</t>
+  </si>
+  <si>
+    <t>协议层：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -342,12 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF23263B"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -377,6 +420,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF23263B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -393,7 +442,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,23 +532,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -431,16 +556,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,76 +571,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,13 +605,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,19 +725,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,25 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,103 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,21 +796,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -776,35 +810,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +828,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +870,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,145 +904,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,25 +1062,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1099,6 +1148,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="1141730"/>
+          <a:ext cx="1861820" cy="659130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,15 +1496,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="7"/>
+      <c r="V1" s="5"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -1420,7 +1516,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="7"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -1429,7 +1525,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -1438,7 +1534,7 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1523,7 +1619,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="3:3">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1613,37 +1709,37 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:3">
-      <c r="B37" s="5"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:3">
-      <c r="B38" s="5"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:3">
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:3">
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
@@ -1655,112 +1751,112 @@
       <c r="B44" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:3">
       <c r="B45" s="13"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="5"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="5"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="5"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="5"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:2">
-      <c r="B57" s="5"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:2">
-      <c r="B58" s="5"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:2">
-      <c r="B59" s="5"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:2">
-      <c r="B60" s="5"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:2">
-      <c r="B61" s="5"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="5"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="5"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="5"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="5"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="5"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="5"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="5"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="5"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="5"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="5"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="5"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="5"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="5"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="5"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:1">
       <c r="A80" s="2" t="s">
@@ -1789,23 +1885,23 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:2">
-      <c r="B86" s="5"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:2">
-      <c r="B87" s="5"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" customFormat="1" spans="2:3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:2">
-      <c r="B89" s="5"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="3:3">
-      <c r="C90" s="7"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="3:3">
-      <c r="C91" s="7"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" s="4" customFormat="1"/>
     <row r="93" s="4" customFormat="1"/>
@@ -1815,47 +1911,47 @@
     <row r="97" s="4" customFormat="1"/>
     <row r="98" s="4" customFormat="1"/>
     <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="10"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="2:2">
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" s="4" customFormat="1" spans="2:2">
-      <c r="B101" s="10"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" s="4" customFormat="1" spans="2:2">
-      <c r="B102" s="10"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="2:2">
-      <c r="B103" s="10"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="2:2">
-      <c r="B104" s="10"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="2:2">
-      <c r="B105" s="10"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" s="4" customFormat="1" spans="2:2">
-      <c r="B106" s="10"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="2:2">
-      <c r="B107" s="10"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" s="4" customFormat="1" spans="2:3">
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
     </row>
     <row r="109" s="4" customFormat="1" spans="2:2">
-      <c r="B109" s="10"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="2:2">
-      <c r="B110" s="5"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="2:2">
-      <c r="B111" s="5"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" s="4" customFormat="1" spans="2:2">
-      <c r="B112" s="10"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="197" s="2" customFormat="1"/>
     <row r="198" s="2" customFormat="1"/>
@@ -1884,15 +1980,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="7"/>
+      <c r="V1" s="5"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -1904,7 +2000,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="7"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -1913,7 +2009,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -1922,7 +2018,7 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1932,74 +2028,74 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="6"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="5"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="5"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="5"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="5"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="5"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="5"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:1">
       <c r="A57" s="2" t="s">
@@ -2028,52 +2124,52 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="5"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="5"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="5"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="5"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="5"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="5"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="5"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="5"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="5"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="5"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="5"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="5"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="5"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="80" s="4" customFormat="1"/>
     <row r="81" s="4" customFormat="1"/>
@@ -2083,47 +2179,47 @@
     <row r="85" s="4" customFormat="1"/>
     <row r="86" s="4" customFormat="1"/>
     <row r="87" s="4" customFormat="1" spans="2:2">
-      <c r="B87" s="10"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="2:2">
-      <c r="B88" s="10"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="2:2">
-      <c r="B89" s="10"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="2:2">
-      <c r="B90" s="10"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="2:2">
-      <c r="B91" s="10"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="2:2">
-      <c r="B92" s="10"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="2:2">
-      <c r="B93" s="10"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" s="4" customFormat="1" spans="2:2">
-      <c r="B94" s="10"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" s="4" customFormat="1" spans="2:2">
-      <c r="B95" s="10"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" s="4" customFormat="1" spans="2:3">
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
     </row>
     <row r="97" s="4" customFormat="1" spans="2:2">
-      <c r="B97" s="10"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" s="4" customFormat="1" spans="2:2">
-      <c r="B98" s="5"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="5"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="2:2">
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="185" s="2" customFormat="1"/>
     <row r="186" s="2" customFormat="1"/>
@@ -2140,10 +2236,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE190"/>
+  <dimension ref="A1:AE189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -2152,15 +2248,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="7"/>
+      <c r="V1" s="5"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -2172,7 +2268,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="7"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -2181,7 +2277,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -2190,210 +2286,265 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="4" s="1" customFormat="1" spans="3:3">
-      <c r="C4" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="5"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:2">
+      <c r="B40" s="6"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="5"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="5"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="5"/>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:1">
-      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1" spans="1:1">
-      <c r="A60" s="2" t="s">
+    <row r="58" s="2" customFormat="1"/>
+    <row r="59" s="2" customFormat="1" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:1">
-      <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="6"/>
+    </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="5"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="5"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="5"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="5"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="5"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="5"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="5"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="5"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="5"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="5"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="5"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="5"/>
-    </row>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="79" s="4" customFormat="1"/>
     <row r="80" s="4" customFormat="1"/>
     <row r="81" s="4" customFormat="1"/>
     <row r="82" s="4" customFormat="1"/>
     <row r="83" s="4" customFormat="1"/>
     <row r="84" s="4" customFormat="1"/>
     <row r="85" s="4" customFormat="1"/>
-    <row r="86" s="4" customFormat="1"/>
+    <row r="86" s="4" customFormat="1" spans="2:2">
+      <c r="B86" s="9"/>
+    </row>
     <row r="87" s="4" customFormat="1" spans="2:2">
-      <c r="B87" s="10"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="2:2">
-      <c r="B88" s="10"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="2:2">
-      <c r="B89" s="10"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="2:2">
-      <c r="B90" s="10"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="2:2">
-      <c r="B91" s="10"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="2:2">
-      <c r="B92" s="10"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="2:2">
-      <c r="B93" s="10"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" s="4" customFormat="1" spans="2:2">
-      <c r="B94" s="10"/>
-    </row>
-    <row r="95" s="4" customFormat="1" spans="2:2">
-      <c r="B95" s="10"/>
-    </row>
-    <row r="96" s="4" customFormat="1" spans="2:3">
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="2:3">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="2:2">
+      <c r="B96" s="9"/>
     </row>
     <row r="97" s="4" customFormat="1" spans="2:2">
-      <c r="B97" s="10"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" s="4" customFormat="1" spans="2:2">
-      <c r="B98" s="5"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="2:2">
-      <c r="B100" s="10"/>
-    </row>
+      <c r="B99" s="9"/>
+    </row>
+    <row r="184" s="2" customFormat="1"/>
     <row r="185" s="2" customFormat="1"/>
     <row r="186" s="2" customFormat="1"/>
     <row r="187" s="2" customFormat="1"/>
-    <row r="188" s="2" customFormat="1"/>
+    <row r="188" s="3" customFormat="1"/>
     <row r="189" s="3" customFormat="1"/>
-    <row r="190" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/STM32（六）DMA.xlsx
+++ b/STM32（六）DMA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>STM32</t>
   </si>
@@ -326,7 +326,7 @@
     <t>IIC介绍：</t>
   </si>
   <si>
-    <t>两根线，一个时钟一个数据，是一种同步通信方式。</t>
+    <t>两根线，一个时钟一个数据，是一种同步通信方式，数据线上外设是线与的关系，数据线默认高组态（高电平）。</t>
   </si>
   <si>
     <t>物理层：</t>
@@ -357,6 +357,33 @@
   </si>
   <si>
     <t>协议层：</t>
+  </si>
+  <si>
+    <t>定义了数据的起始信号，停止信号，数据有效性，响应，仲裁，时钟同步，地址广播等</t>
+  </si>
+  <si>
+    <t>⑴数据有效性：</t>
+  </si>
+  <si>
+    <t>SCL高电平时数据必须稳定，SCL低电平才允许数据切换，每次传输都以字节为单位</t>
+  </si>
+  <si>
+    <t>⑵起始信号和停止信号：</t>
+  </si>
+  <si>
+    <t>⑶应答信号：</t>
+  </si>
+  <si>
+    <t>包括两种，应答和不应答。应答就让主机继续发，不应答主机就发停止信号，应答信号就是第九个位的数据</t>
+  </si>
+  <si>
+    <t>⑷总线寻址方式：</t>
+  </si>
+  <si>
+    <t>第0位是方向，1-7是从机地址，从机发现地址和自己一样就判定是自己，否则就忽略</t>
+  </si>
+  <si>
+    <t>⑸数据传输：</t>
   </si>
 </sst>
 </file>
@@ -365,9 +392,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -442,7 +469,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +483,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -464,26 +574,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,35 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -533,52 +606,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF23263B"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
@@ -605,73 +632,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,109 +800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,15 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -832,17 +850,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,13 +900,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,7 +934,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,133 +943,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,8 +1207,176 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="1141730"/>
-          <a:ext cx="1861820" cy="659130"/>
+          <a:off x="680720" y="1173480"/>
+          <a:ext cx="1706245" cy="684530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="3670300"/>
+          <a:ext cx="3763645" cy="1329055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="5448300"/>
+          <a:ext cx="3749675" cy="1382395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1031240" y="7277100"/>
+          <a:ext cx="3772535" cy="1517650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="9004300"/>
+          <a:ext cx="4363085" cy="880745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,16 +1681,16 @@
   <sheetPr/>
   <dimension ref="A1:AE202"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.87272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="1" customFormat="1" ht="23" spans="9:31">
       <c r="I1" s="7"/>
       <c r="J1" s="7" t="s">
         <v>0</v>
@@ -1974,12 +2169,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.87272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="1" customFormat="1" ht="23" spans="9:31">
       <c r="I1" s="7"/>
       <c r="J1" s="7" t="s">
         <v>0</v>
@@ -2238,16 +2433,16 @@
   <sheetPr/>
   <dimension ref="A1:AE189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.87272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="1" customFormat="1" ht="23" spans="9:31">
       <c r="I1" s="7"/>
       <c r="J1" s="7" t="s">
         <v>0</v>
@@ -2350,6 +2545,26 @@
         <v>74</v>
       </c>
     </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="36" s="1" customFormat="1" spans="2:2">
       <c r="B36" s="6"/>
     </row>
@@ -2362,10 +2577,15 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
       <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:2">
+      <c r="C39" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:4">
       <c r="B40" s="6"/>
+      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
       <c r="B41" s="6"/>
@@ -2394,8 +2614,11 @@
     <row r="49" s="1" customFormat="1" spans="2:2">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:2">
+    <row r="50" s="1" customFormat="1" spans="2:3">
       <c r="B50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
       <c r="B51" s="6"/>
@@ -2412,30 +2635,14 @@
     <row r="55" s="1" customFormat="1" spans="2:2">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:1">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:1">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="59" s="2" customFormat="1" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>58</v>
+    <row r="56" spans="4:4">
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:2">
@@ -2447,24 +2654,6 @@
     <row r="64" s="1" customFormat="1" spans="2:2">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="6"/>
-    </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
       <c r="B71" s="6"/>
     </row>
@@ -2483,13 +2672,32 @@
     <row r="76" s="1" customFormat="1" spans="2:2">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="79" s="4" customFormat="1"/>
-    <row r="80" s="4" customFormat="1"/>
-    <row r="81" s="4" customFormat="1"/>
-    <row r="82" s="4" customFormat="1"/>
+    <row r="77" s="2" customFormat="1" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1"/>
+    <row r="80" s="2" customFormat="1" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="83" s="4" customFormat="1"/>
     <row r="84" s="4" customFormat="1"/>
     <row r="85" s="4" customFormat="1"/>

--- a/STM32（六）DMA.xlsx
+++ b/STM32（六）DMA.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="5" r:id="rId1"/>
     <sheet name="RTC" sheetId="6" r:id="rId2"/>
     <sheet name="IIC" sheetId="7" r:id="rId3"/>
+    <sheet name="485" sheetId="8" r:id="rId4"/>
+    <sheet name="can" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>STM32</t>
   </si>
@@ -385,14 +387,194 @@
   <si>
     <t>⑸数据传输：</t>
   </si>
+  <si>
+    <t>没啥</t>
+  </si>
+  <si>
+    <t>程序：</t>
+  </si>
+  <si>
+    <t>没有使用硬件，使用的GPIO模拟，程序比较简单，照着协议拉引脚就好了</t>
+  </si>
+  <si>
+    <t>写个起始信号，写个停止信号，写个等待应答的函数，写2个应答函数，写个发数据函数</t>
+  </si>
+  <si>
+    <t>第三十一讲：485通信</t>
+  </si>
+  <si>
+    <t>先不学，没时间</t>
+  </si>
+  <si>
+    <t>第三十二讲：can通信</t>
+  </si>
+  <si>
+    <t>can总线介绍：</t>
+  </si>
+  <si>
+    <t>两根线，can高和can低，控制器根据两根线上的电位差来判断总线电平，总线电平分显性电平和隐性电平，发送方通过使总线电平变化将消息发出去</t>
+  </si>
+  <si>
+    <t>can的特点：</t>
+  </si>
+  <si>
+    <t>①多主控制</t>
+  </si>
+  <si>
+    <t>所有总线上的单元都能发送消息，每个设备都有ID，但是ID表示优先级，并不是地址，多个设备同时发送要进行仲裁</t>
+  </si>
+  <si>
+    <t>②系统的柔软性</t>
+  </si>
+  <si>
+    <t>因为没有地址，所以只要把设备挂上就行，不用像IIC那样要给一个唯一的地址</t>
+  </si>
+  <si>
+    <t>③通信速度快，适合远距离通信</t>
+  </si>
+  <si>
+    <t>④具有错误检测，错误通知，错误恢复功能</t>
+  </si>
+  <si>
+    <t>can上的所有单元都可以检测错误，一旦检测出错误后，就通知总线上所有的单元</t>
+  </si>
+  <si>
+    <t>正在发消息的单元一旦检测出错误会强制结束当前的发送，会不断的重试发送此消息</t>
+  </si>
+  <si>
+    <t>⑤故障封闭功能</t>
+  </si>
+  <si>
+    <t>can可以判断是总线的暂时错误还是持续的错误，如果是持续错误就可以把故障单元从总线上隔离出去</t>
+  </si>
+  <si>
+    <t>⑥连接节点多</t>
+  </si>
+  <si>
+    <t>理论上无限连接，随便挂</t>
+  </si>
+  <si>
+    <t>can的两种标准：</t>
+  </si>
+  <si>
+    <t>can两种标准的物理层：</t>
+  </si>
+  <si>
+    <t>显性电平是逻辑0，隐形电平是逻辑1，逻辑0时can高和can低的电势差是2.5V，逻辑1时can高和can低的电势差是0v</t>
+  </si>
+  <si>
+    <t>总线上有一个输出显性电平整个总线就输出显性电平，总线上有人输出0就是0</t>
+  </si>
+  <si>
+    <t>总线上所有都输出隐性电平整个总线才输出隐性电平，总线上全1才是1</t>
+  </si>
+  <si>
+    <t>所以高速can是线与的关系</t>
+  </si>
+  <si>
+    <t>网络拓扑结构：</t>
+  </si>
+  <si>
+    <t>can总线和应用层之间有can收发器和can控制器</t>
+  </si>
+  <si>
+    <t>can协议：</t>
+  </si>
+  <si>
+    <t>can通信主要有5种帧，分别是数据帧，遥控帧，错误帧，过载帧，帧间隔。</t>
+  </si>
+  <si>
+    <t>帧</t>
+  </si>
+  <si>
+    <t>帧用途</t>
+  </si>
+  <si>
+    <t>数据帧</t>
+  </si>
+  <si>
+    <t>发送单元向接收单元发送数据的帧</t>
+  </si>
+  <si>
+    <t>遥控帧</t>
+  </si>
+  <si>
+    <t>用于接收单元向相同ID的发送单元请求发送数据的帧</t>
+  </si>
+  <si>
+    <t>错误帧</t>
+  </si>
+  <si>
+    <t>用于检测出错误向其他单元通知错误的帧</t>
+  </si>
+  <si>
+    <t>过载帧</t>
+  </si>
+  <si>
+    <t>用于接收单元通知自己还没准备好的帧</t>
+  </si>
+  <si>
+    <t>帧间隔</t>
+  </si>
+  <si>
+    <t>用于数据帧和遥控帧与前面的帧分开的帧</t>
+  </si>
+  <si>
+    <t>数据帧：</t>
+  </si>
+  <si>
+    <t>帧起始：表示通信开始</t>
+  </si>
+  <si>
+    <t>仲裁段：表示帧优先级的段</t>
+  </si>
+  <si>
+    <t>控制段：表示数据字节和保留位的段</t>
+  </si>
+  <si>
+    <t>数据段：数据的内容，0-8字节</t>
+  </si>
+  <si>
+    <t>CRC段：校验的</t>
+  </si>
+  <si>
+    <t>ACK段：响应</t>
+  </si>
+  <si>
+    <t>帧结束：结束的段</t>
+  </si>
+  <si>
+    <t>D：表示显性电平，逻辑0</t>
+  </si>
+  <si>
+    <t>R：表示隐性电平，逻辑1</t>
+  </si>
+  <si>
+    <t>can的位时序：</t>
+  </si>
+  <si>
+    <t>发送单元再非同步的情况下每秒发送的位数叫位速率，一个位分为4段</t>
+  </si>
+  <si>
+    <t>同步段，传播时间段，相位缓冲段1，相位缓冲段2，1位分为4段，每段由若干个Tq组成，这称为位时序</t>
+  </si>
+  <si>
+    <t>can的仲裁：</t>
+  </si>
+  <si>
+    <t>连续发显性电平多的仲裁成功，竞争失败的就要转成接收</t>
+  </si>
+  <si>
+    <t>该学can第二集了</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -412,6 +594,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -427,21 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -455,6 +629,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -462,36 +644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,22 +659,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,18 +702,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,6 +733,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -590,16 +773,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,12 +793,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -632,7 +820,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,25 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,31 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,114 +1000,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -826,11 +1014,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,17 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -872,6 +1092,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,26 +1138,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +1156,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,174 +1168,204 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1207,8 +1462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680720" y="1173480"/>
-          <a:ext cx="1706245" cy="684530"/>
+          <a:off x="742950" y="1141730"/>
+          <a:ext cx="1861820" cy="659130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,8 +1504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="3670300"/>
-          <a:ext cx="3763645" cy="1329055"/>
+          <a:off x="1114425" y="3543300"/>
+          <a:ext cx="4105910" cy="1284605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,8 +1546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="5448300"/>
-          <a:ext cx="3749675" cy="1382395"/>
+          <a:off x="1114425" y="5257800"/>
+          <a:ext cx="4091940" cy="1337945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1333,8 +1588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1031240" y="7277100"/>
-          <a:ext cx="3772535" cy="1517650"/>
+          <a:off x="1124585" y="7023100"/>
+          <a:ext cx="4114800" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,8 +1630,1084 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="9004300"/>
-          <a:ext cx="4363085" cy="880745"/>
+          <a:off x="1114425" y="8686800"/>
+          <a:ext cx="4736465" cy="855345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="3200400"/>
+          <a:ext cx="4080510" cy="3240405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2285365" y="3223895"/>
+          <a:ext cx="482600" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33655</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1508760" y="4995545"/>
+          <a:ext cx="382270" cy="140970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1508760" y="3573145"/>
+          <a:ext cx="518160" cy="116840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>267970</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3982720" y="3251200"/>
+          <a:ext cx="426720" cy="116205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191770</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334010</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163570" y="3567430"/>
+          <a:ext cx="513715" cy="116840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197485</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169285" y="4987290"/>
+          <a:ext cx="377825" cy="156845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="6629400"/>
+          <a:ext cx="4775835" cy="1823085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="9371965"/>
+          <a:ext cx="3354705" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113790" y="12629515"/>
+          <a:ext cx="5480050" cy="3817620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,475 +3016,475 @@
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="1"/>
+    <col min="1" max="16384" width="4.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" spans="9:31">
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="1" t="s">
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:27">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="5" customFormat="1" spans="2:2">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:3">
-      <c r="C4" s="1" t="s">
+    <row r="4" s="5" customFormat="1" spans="3:3">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:3">
-      <c r="C5" s="1" t="s">
+    <row r="5" s="5" customFormat="1" spans="3:3">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:3">
-      <c r="C6" s="1" t="s">
+    <row r="6" s="5" customFormat="1" spans="3:3">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:3">
-      <c r="C7" s="1" t="s">
+    <row r="7" s="5" customFormat="1" spans="3:3">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:2">
-      <c r="B8" s="1" t="s">
+    <row r="8" s="5" customFormat="1" spans="2:2">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:3">
-      <c r="C9" s="1" t="s">
+    <row r="9" s="5" customFormat="1" spans="3:3">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="5" customFormat="1" spans="3:3">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="11" s="5" customFormat="1" spans="3:3">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:3">
-      <c r="C12" s="1" t="s">
+    <row r="12" s="5" customFormat="1" spans="3:3">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:3">
-      <c r="C13" s="1" t="s">
+    <row r="13" s="5" customFormat="1" spans="3:3">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:3">
-      <c r="C14" s="1" t="s">
+    <row r="14" s="5" customFormat="1" spans="3:3">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:3">
-      <c r="C15" s="1" t="s">
+    <row r="15" s="5" customFormat="1" spans="3:3">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="3:3">
-      <c r="C16" s="1" t="s">
+    <row r="16" s="5" customFormat="1" ht="16.5" spans="3:3">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:3">
-      <c r="C17" s="1" t="s">
+    <row r="17" s="5" customFormat="1" spans="3:3">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="18" s="5" customFormat="1" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="3:3">
-      <c r="C19" s="11" t="s">
+    <row r="19" s="5" customFormat="1" ht="16.5" spans="3:3">
+      <c r="C19" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:3">
-      <c r="C20" s="1" t="s">
+    <row r="20" s="5" customFormat="1" spans="3:3">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:3">
-      <c r="C21" s="1" t="s">
+    <row r="21" s="5" customFormat="1" spans="3:3">
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:3">
-      <c r="C22" s="1" t="s">
+    <row r="22" s="5" customFormat="1" spans="3:3">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:3">
-      <c r="C23" s="1" t="s">
+    <row r="23" s="5" customFormat="1" spans="3:3">
+      <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:2">
-      <c r="B24" s="1" t="s">
+    <row r="24" s="5" customFormat="1" spans="2:2">
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:3">
-      <c r="C25" s="1" t="s">
+    <row r="25" s="5" customFormat="1" spans="3:3">
+      <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:3">
-      <c r="C26" s="1" t="s">
+    <row r="26" s="5" customFormat="1" spans="3:3">
+      <c r="C26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:3">
-      <c r="C27" s="1" t="s">
+    <row r="27" s="5" customFormat="1" spans="3:3">
+      <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:3">
-      <c r="C28" s="1" t="s">
+    <row r="28" s="5" customFormat="1" spans="3:3">
+      <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="3:3">
-      <c r="C29" s="1" t="s">
+    <row r="29" s="5" customFormat="1" spans="3:3">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="3:3">
-      <c r="C30" s="1" t="s">
+    <row r="30" s="5" customFormat="1" spans="3:3">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="3:3">
-      <c r="C31" s="1" t="s">
+    <row r="31" s="5" customFormat="1" spans="3:3">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="3:3">
-      <c r="C32" s="1" t="s">
+    <row r="32" s="5" customFormat="1" spans="3:3">
+      <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="3:3">
-      <c r="C33" s="1" t="s">
+    <row r="33" s="5" customFormat="1" spans="3:3">
+      <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="3:3">
-      <c r="C34" s="1" t="s">
+    <row r="34" s="5" customFormat="1" spans="3:3">
+      <c r="C34" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="3:3">
-      <c r="C35" s="1" t="s">
+    <row r="35" s="5" customFormat="1" spans="3:3">
+      <c r="C35" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="2:2">
-      <c r="B36" s="1" t="s">
+    <row r="36" s="5" customFormat="1" spans="2:2">
+      <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="2:3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="1" t="s">
+    <row r="37" s="5" customFormat="1" spans="2:3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="2:3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="1" t="s">
+    <row r="38" s="5" customFormat="1" spans="2:3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="5" t="s">
+    <row r="39" s="5" customFormat="1" spans="2:3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="5" t="s">
+    <row r="40" s="5" customFormat="1" spans="2:3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="1" t="s">
+    <row r="41" s="5" customFormat="1" spans="2:3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="1" t="s">
+    <row r="42" s="5" customFormat="1" spans="2:3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:2">
+    <row r="43" s="5" customFormat="1" spans="2:2">
       <c r="B43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:3">
-      <c r="B44" s="12" t="s">
+    <row r="44" s="5" customFormat="1" spans="2:3">
+      <c r="B44" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="6" t="s">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" s="5" customFormat="1" spans="2:3">
+      <c r="B45" s="23"/>
+      <c r="C45" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="2:2">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="2:2">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:2">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:2">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="2:2">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="1:1">
-      <c r="A80" s="2" t="s">
+    <row r="46" s="5" customFormat="1" spans="2:2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="2:2">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="2:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" s="5" customFormat="1" spans="2:2">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="2:2">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="2:2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="2:2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="2:2">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" s="5" customFormat="1" spans="2:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="2:2">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" s="5" customFormat="1" spans="2:2">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" s="5" customFormat="1" spans="2:2">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="2:2">
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" s="5" customFormat="1" spans="2:2">
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="2:2">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" s="5" customFormat="1" spans="2:2">
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="2:2">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" s="5" customFormat="1" spans="2:2">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" s="5" customFormat="1" spans="2:2">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" s="5" customFormat="1" spans="2:2">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" s="5" customFormat="1" spans="2:2">
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" s="5" customFormat="1" spans="2:2">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" s="5" customFormat="1" spans="2:2">
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" s="5" customFormat="1" spans="2:2">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" s="5" customFormat="1" spans="2:2">
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="2:2">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="2:2">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" s="5" customFormat="1" spans="2:2">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" s="5" customFormat="1" spans="2:2">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="2:2">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" s="5" customFormat="1" spans="2:2">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" s="5" customFormat="1" spans="2:2">
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" s="5" customFormat="1" spans="2:2">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:1">
+      <c r="A80" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:1">
-      <c r="A81" s="2" t="s">
+    <row r="81" s="3" customFormat="1" spans="1:1">
+      <c r="A81" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1"/>
-    <row r="83" s="2" customFormat="1" spans="1:1">
-      <c r="A83" s="2" t="s">
+    <row r="82" s="3" customFormat="1"/>
+    <row r="83" s="3" customFormat="1" spans="1:1">
+      <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" spans="1:1">
-      <c r="A84" s="3" t="s">
+    <row r="84" s="4" customFormat="1" spans="1:1">
+      <c r="A84" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" spans="1:1">
-      <c r="A85" s="3" t="s">
+    <row r="85" s="4" customFormat="1" spans="1:1">
+      <c r="A85" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:2">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="2:2">
-      <c r="B87" s="6"/>
+    <row r="86" s="5" customFormat="1" spans="2:2">
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" s="5" customFormat="1" spans="2:2">
+      <c r="B87" s="15"/>
     </row>
     <row r="88" customFormat="1" spans="2:3">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="2:2">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="3:3">
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="3:3">
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" s="4" customFormat="1"/>
-    <row r="93" s="4" customFormat="1"/>
-    <row r="94" s="4" customFormat="1"/>
-    <row r="95" s="4" customFormat="1"/>
-    <row r="96" s="4" customFormat="1"/>
-    <row r="97" s="4" customFormat="1"/>
-    <row r="98" s="4" customFormat="1"/>
-    <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="9"/>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="2:2">
-      <c r="B100" s="9"/>
-    </row>
-    <row r="101" s="4" customFormat="1" spans="2:2">
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="2:2">
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" s="4" customFormat="1" spans="2:2">
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" s="4" customFormat="1" spans="2:2">
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" s="4" customFormat="1" spans="2:2">
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" s="4" customFormat="1" spans="2:2">
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" s="4" customFormat="1" spans="2:2">
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" s="4" customFormat="1" spans="2:3">
-      <c r="B108" s="9"/>
-      <c r="C108" s="10"/>
-    </row>
-    <row r="109" s="4" customFormat="1" spans="2:2">
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" s="4" customFormat="1" spans="2:2">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" s="4" customFormat="1" spans="2:2">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" s="4" customFormat="1" spans="2:2">
-      <c r="B112" s="9"/>
-    </row>
-    <row r="197" s="2" customFormat="1"/>
-    <row r="198" s="2" customFormat="1"/>
-    <row r="199" s="2" customFormat="1"/>
-    <row r="200" s="2" customFormat="1"/>
-    <row r="201" s="3" customFormat="1"/>
-    <row r="202" s="3" customFormat="1"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" s="5" customFormat="1" spans="2:2">
+      <c r="B89" s="15"/>
+    </row>
+    <row r="90" s="14" customFormat="1" spans="3:3">
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" s="14" customFormat="1" spans="3:3">
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" s="14" customFormat="1"/>
+    <row r="93" s="14" customFormat="1"/>
+    <row r="94" s="14" customFormat="1"/>
+    <row r="95" s="14" customFormat="1"/>
+    <row r="96" s="14" customFormat="1"/>
+    <row r="97" s="14" customFormat="1"/>
+    <row r="98" s="14" customFormat="1"/>
+    <row r="99" s="14" customFormat="1" spans="2:2">
+      <c r="B99" s="19"/>
+    </row>
+    <row r="100" s="14" customFormat="1" spans="2:2">
+      <c r="B100" s="19"/>
+    </row>
+    <row r="101" s="14" customFormat="1" spans="2:2">
+      <c r="B101" s="19"/>
+    </row>
+    <row r="102" s="14" customFormat="1" spans="2:2">
+      <c r="B102" s="19"/>
+    </row>
+    <row r="103" s="14" customFormat="1" spans="2:2">
+      <c r="B103" s="19"/>
+    </row>
+    <row r="104" s="14" customFormat="1" spans="2:2">
+      <c r="B104" s="19"/>
+    </row>
+    <row r="105" s="14" customFormat="1" spans="2:2">
+      <c r="B105" s="19"/>
+    </row>
+    <row r="106" s="14" customFormat="1" spans="2:2">
+      <c r="B106" s="19"/>
+    </row>
+    <row r="107" s="14" customFormat="1" spans="2:2">
+      <c r="B107" s="19"/>
+    </row>
+    <row r="108" s="14" customFormat="1" spans="2:3">
+      <c r="B108" s="19"/>
+      <c r="C108" s="21"/>
+    </row>
+    <row r="109" s="14" customFormat="1" spans="2:2">
+      <c r="B109" s="19"/>
+    </row>
+    <row r="110" s="14" customFormat="1" spans="2:2">
+      <c r="B110" s="15"/>
+    </row>
+    <row r="111" s="14" customFormat="1" spans="2:2">
+      <c r="B111" s="15"/>
+    </row>
+    <row r="112" s="14" customFormat="1" spans="2:2">
+      <c r="B112" s="19"/>
+    </row>
+    <row r="197" s="3" customFormat="1"/>
+    <row r="198" s="3" customFormat="1"/>
+    <row r="199" s="3" customFormat="1"/>
+    <row r="200" s="3" customFormat="1"/>
+    <row r="201" s="4" customFormat="1"/>
+    <row r="202" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2169,259 +3500,259 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="1"/>
+    <col min="1" max="16384" width="4.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" spans="9:31">
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="1" t="s">
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:27">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="5" customFormat="1" spans="2:2">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:3">
-      <c r="C4" s="6" t="s">
+    <row r="4" s="5" customFormat="1" spans="3:3">
+      <c r="C4" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="11"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:1">
-      <c r="A57" s="2" t="s">
+    <row r="19" s="5" customFormat="1" spans="3:3">
+      <c r="C19" s="20"/>
+    </row>
+    <row r="37" s="5" customFormat="1" spans="2:2">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" s="5" customFormat="1" spans="2:2">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="2:3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="2:3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="2:2">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" s="5" customFormat="1" spans="2:2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" s="5" customFormat="1" spans="2:2">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="2:2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" s="5" customFormat="1" spans="2:2">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" s="5" customFormat="1" spans="2:2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="2:2">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="2:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" s="5" customFormat="1" spans="2:2">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="2:2">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="2:2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="2:2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="2:2">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" s="5" customFormat="1" spans="2:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="2:2">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" s="5" customFormat="1" spans="2:2">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:1">
+      <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:1">
-      <c r="A58" s="2" t="s">
+    <row r="58" s="3" customFormat="1" spans="1:1">
+      <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1" spans="1:1">
-      <c r="A60" s="2" t="s">
+    <row r="59" s="3" customFormat="1"/>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1" spans="1:1">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="4" customFormat="1" spans="1:1">
+      <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" s="3" customFormat="1" spans="1:1">
-      <c r="A62" s="3" t="s">
+    <row r="62" s="4" customFormat="1" spans="1:1">
+      <c r="A62" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="80" s="4" customFormat="1"/>
-    <row r="81" s="4" customFormat="1"/>
-    <row r="82" s="4" customFormat="1"/>
-    <row r="83" s="4" customFormat="1"/>
-    <row r="84" s="4" customFormat="1"/>
-    <row r="85" s="4" customFormat="1"/>
-    <row r="86" s="4" customFormat="1"/>
-    <row r="87" s="4" customFormat="1" spans="2:2">
-      <c r="B87" s="9"/>
-    </row>
-    <row r="88" s="4" customFormat="1" spans="2:2">
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" s="4" customFormat="1" spans="2:2">
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="2:2">
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="2:2">
-      <c r="B91" s="9"/>
-    </row>
-    <row r="92" s="4" customFormat="1" spans="2:2">
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" s="4" customFormat="1" spans="2:2">
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" s="4" customFormat="1" spans="2:2">
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" s="4" customFormat="1" spans="2:2">
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" s="4" customFormat="1" spans="2:3">
-      <c r="B96" s="9"/>
-      <c r="C96" s="10"/>
-    </row>
-    <row r="97" s="4" customFormat="1" spans="2:2">
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" s="4" customFormat="1" spans="2:2">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="2:2">
-      <c r="B100" s="9"/>
-    </row>
-    <row r="185" s="2" customFormat="1"/>
-    <row r="186" s="2" customFormat="1"/>
-    <row r="187" s="2" customFormat="1"/>
-    <row r="188" s="2" customFormat="1"/>
-    <row r="189" s="3" customFormat="1"/>
-    <row r="190" s="3" customFormat="1"/>
+    <row r="63" s="5" customFormat="1" spans="2:2">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" s="5" customFormat="1" spans="2:2">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" s="5" customFormat="1" spans="2:2">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" s="5" customFormat="1" spans="2:2">
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" s="5" customFormat="1" spans="2:2">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" s="5" customFormat="1" spans="2:2">
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" s="5" customFormat="1" spans="2:2">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" s="5" customFormat="1" spans="2:2">
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="2:2">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="2:2">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" s="5" customFormat="1" spans="2:2">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" s="5" customFormat="1" spans="2:2">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="2:2">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" s="5" customFormat="1" spans="2:2">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" s="5" customFormat="1" spans="2:2">
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" s="5" customFormat="1" spans="2:2">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="80" s="14" customFormat="1"/>
+    <row r="81" s="14" customFormat="1"/>
+    <row r="82" s="14" customFormat="1"/>
+    <row r="83" s="14" customFormat="1"/>
+    <row r="84" s="14" customFormat="1"/>
+    <row r="85" s="14" customFormat="1"/>
+    <row r="86" s="14" customFormat="1"/>
+    <row r="87" s="14" customFormat="1" spans="2:2">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" s="14" customFormat="1" spans="2:2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" s="14" customFormat="1" spans="2:2">
+      <c r="B89" s="19"/>
+    </row>
+    <row r="90" s="14" customFormat="1" spans="2:2">
+      <c r="B90" s="19"/>
+    </row>
+    <row r="91" s="14" customFormat="1" spans="2:2">
+      <c r="B91" s="19"/>
+    </row>
+    <row r="92" s="14" customFormat="1" spans="2:2">
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" s="14" customFormat="1" spans="2:2">
+      <c r="B93" s="19"/>
+    </row>
+    <row r="94" s="14" customFormat="1" spans="2:2">
+      <c r="B94" s="19"/>
+    </row>
+    <row r="95" s="14" customFormat="1" spans="2:2">
+      <c r="B95" s="19"/>
+    </row>
+    <row r="96" s="14" customFormat="1" spans="2:3">
+      <c r="B96" s="19"/>
+      <c r="C96" s="21"/>
+    </row>
+    <row r="97" s="14" customFormat="1" spans="2:2">
+      <c r="B97" s="19"/>
+    </row>
+    <row r="98" s="14" customFormat="1" spans="2:2">
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" s="14" customFormat="1" spans="2:2">
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" s="14" customFormat="1" spans="2:2">
+      <c r="B100" s="19"/>
+    </row>
+    <row r="185" s="3" customFormat="1"/>
+    <row r="186" s="3" customFormat="1"/>
+    <row r="187" s="3" customFormat="1"/>
+    <row r="188" s="3" customFormat="1"/>
+    <row r="189" s="4" customFormat="1"/>
+    <row r="190" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2431,27 +3762,571 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE189"/>
+  <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="W54" sqref="W54"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A102" sqref="$A102:$XFD107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="1"/>
+    <col min="1" max="16384" width="4.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" spans="9:31">
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="5"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="2:2">
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="3:3">
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="3:3">
+      <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="3:3">
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="3:3">
+      <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="3:3">
+      <c r="C14" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="3:3">
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="3:3">
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="3:3">
+      <c r="C17" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="3:3">
+      <c r="C19" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="3:3">
+      <c r="C20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="4:4">
+      <c r="D29" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="3:3">
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="2:2">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" s="5" customFormat="1" spans="2:2">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" s="5" customFormat="1" spans="2:3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="2:3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="2:4">
+      <c r="B40" s="15"/>
+      <c r="D40" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="2:2">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" s="5" customFormat="1" spans="2:2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" s="5" customFormat="1" spans="2:2">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="2:2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" s="5" customFormat="1" spans="2:2">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" s="5" customFormat="1" spans="2:2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="2:2">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="2:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" s="5" customFormat="1" spans="2:2">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="2:3">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="2:2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="2:2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="2:2">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" s="5" customFormat="1" spans="2:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="2:2">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" s="5" customFormat="1" spans="4:4">
+      <c r="D56" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" s="5" customFormat="1" spans="3:3">
+      <c r="C57" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="4:4">
+      <c r="D58" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="1" spans="2:2">
+      <c r="B59" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="3:3">
+      <c r="C60" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" s="5" customFormat="1" spans="3:3">
+      <c r="C61" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="2:2">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" s="5" customFormat="1" spans="2:2">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" s="5" customFormat="1" spans="2:2">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="2:2">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="2:2">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" s="5" customFormat="1" spans="2:2">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" s="5" customFormat="1" spans="2:2">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="2:2">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" s="5" customFormat="1" spans="2:2">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="83" s="14" customFormat="1"/>
+    <row r="84" s="14" customFormat="1"/>
+    <row r="85" s="14" customFormat="1"/>
+    <row r="86" s="14" customFormat="1" spans="2:2">
+      <c r="B86" s="19"/>
+    </row>
+    <row r="87" s="14" customFormat="1" spans="2:2">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" s="14" customFormat="1" spans="2:2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" s="14" customFormat="1" spans="2:2">
+      <c r="B89" s="19"/>
+    </row>
+    <row r="90" s="14" customFormat="1" spans="2:2">
+      <c r="B90" s="19"/>
+    </row>
+    <row r="91" s="14" customFormat="1" spans="2:2">
+      <c r="B91" s="19"/>
+    </row>
+    <row r="92" s="14" customFormat="1" spans="2:2">
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" s="14" customFormat="1" spans="2:2">
+      <c r="B93" s="19"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1"/>
+    <row r="105" s="3" customFormat="1" spans="1:1">
+      <c r="A105" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:1">
+      <c r="A106" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="1:1">
+      <c r="A107" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE107"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="16"/>
+      <c r="W1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="3:3">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="3:3">
+      <c r="C14" s="16"/>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="2:2">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" s="5" customFormat="1" spans="2:2">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" s="5" customFormat="1" spans="2:3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="2:3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="2:2">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="2:2">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" s="5" customFormat="1" spans="2:2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" s="5" customFormat="1" spans="2:2">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="2:2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" s="5" customFormat="1" spans="2:2">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" s="5" customFormat="1" spans="2:2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="2:2">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="2:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" s="5" customFormat="1" spans="2:2">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="2:3">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="2:2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="2:2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="2:2">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" s="5" customFormat="1" spans="2:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="2:2">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="4:4">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="2:2">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" s="5" customFormat="1" spans="2:2">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" s="5" customFormat="1" spans="2:2">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="2:2">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="2:2">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" s="5" customFormat="1" spans="2:2">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" s="5" customFormat="1" spans="2:2">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="2:2">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" s="5" customFormat="1" spans="2:2">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="83" s="14" customFormat="1"/>
+    <row r="84" s="14" customFormat="1"/>
+    <row r="85" s="14" customFormat="1"/>
+    <row r="86" s="14" customFormat="1" spans="2:2">
+      <c r="B86" s="19"/>
+    </row>
+    <row r="87" s="14" customFormat="1" spans="2:2">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" s="14" customFormat="1" spans="2:2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" s="14" customFormat="1" spans="2:2">
+      <c r="B89" s="19"/>
+    </row>
+    <row r="90" s="14" customFormat="1" spans="2:2">
+      <c r="B90" s="19"/>
+    </row>
+    <row r="91" s="14" customFormat="1" spans="2:2">
+      <c r="B91" s="19"/>
+    </row>
+    <row r="92" s="14" customFormat="1" spans="2:2">
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" s="14" customFormat="1" spans="2:2">
+      <c r="B93" s="19"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1"/>
+    <row r="105" s="3" customFormat="1" spans="1:1">
+      <c r="A105" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:1">
+      <c r="A106" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="1:1">
+      <c r="A107" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE159"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="8"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -2463,16 +4338,16 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="5"/>
+      <c r="AE1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -2481,275 +4356,509 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" s="1" customFormat="1" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:4">
+      <c r="D12" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:3">
       <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1" spans="2:2">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:2">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:2">
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:4">
-      <c r="B40" s="6"/>
-      <c r="D40" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:2">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:2">
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="6"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="6"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="6"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:1">
-      <c r="A77" s="2" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="3:3">
+      <c r="C52" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="3:3">
+      <c r="C53" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:4">
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1"/>
+    <row r="56" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1"/>
+    <row r="58" s="1" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:2">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:2">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1"/>
+    <row r="62" s="1" customFormat="1"/>
+    <row r="63" s="1" customFormat="1"/>
+    <row r="64" s="1" customFormat="1" spans="3:3">
+      <c r="C64" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="3:3">
+      <c r="C66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:14">
+      <c r="B67" s="7"/>
+      <c r="C67" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:14">
+      <c r="B68" s="7"/>
+      <c r="C68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:14">
+      <c r="B69" s="7"/>
+      <c r="C69" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:14">
+      <c r="B70" s="7"/>
+      <c r="C70" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:14">
+      <c r="B71" s="7"/>
+      <c r="C71" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:14">
+      <c r="B72" s="7"/>
+      <c r="C72" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="3:3">
+      <c r="C73" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="2" customFormat="1"/>
+    <row r="80" s="2" customFormat="1"/>
+    <row r="81" s="2" customFormat="1"/>
+    <row r="82" s="2" customFormat="1" spans="2:2">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="2:2">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="2:2">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="2:2">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="2:2">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="2:2">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="2:2">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="2:2">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1" spans="4:4">
+      <c r="D97" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="4:4">
+      <c r="D98" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="4:4">
+      <c r="D99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="4:4">
+      <c r="D100" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="4:4">
+      <c r="D101" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="4:4">
+      <c r="D102" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="4:4">
+      <c r="D103" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="4:4">
+      <c r="D104" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="4:4">
+      <c r="D105" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="2:2">
+      <c r="B106" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="3:3">
+      <c r="C107" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="3:3">
+      <c r="C108" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="2:2">
+      <c r="B109" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="3:3">
+      <c r="C110" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="2:2">
+      <c r="B111" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1"/>
+    <row r="122" s="1" customFormat="1"/>
+    <row r="123" s="1" customFormat="1"/>
+    <row r="124" s="1" customFormat="1"/>
+    <row r="125" s="1" customFormat="1"/>
+    <row r="126" s="1" customFormat="1"/>
+    <row r="127" s="1" customFormat="1"/>
+    <row r="128" s="1" customFormat="1"/>
+    <row r="129" s="1" customFormat="1"/>
+    <row r="130" s="1" customFormat="1"/>
+    <row r="131" s="1" customFormat="1"/>
+    <row r="132" s="1" customFormat="1"/>
+    <row r="133" s="1" customFormat="1"/>
+    <row r="134" s="1" customFormat="1"/>
+    <row r="135" s="1" customFormat="1"/>
+    <row r="136" s="1" customFormat="1"/>
+    <row r="137" s="1" customFormat="1"/>
+    <row r="138" s="1" customFormat="1"/>
+    <row r="139" s="1" customFormat="1"/>
+    <row r="140" s="1" customFormat="1"/>
+    <row r="141" s="1" customFormat="1"/>
+    <row r="154" s="3" customFormat="1" spans="1:1">
+      <c r="A154" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:1">
-      <c r="A78" s="2" t="s">
+    <row r="155" s="3" customFormat="1" spans="1:1">
+      <c r="A155" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1"/>
-    <row r="80" s="2" customFormat="1" spans="1:1">
-      <c r="A80" s="2" t="s">
+    <row r="156" s="3" customFormat="1"/>
+    <row r="157" s="3" customFormat="1" spans="1:1">
+      <c r="A157" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:1">
-      <c r="A81" s="3" t="s">
+    <row r="158" s="4" customFormat="1" spans="1:1">
+      <c r="A158" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1" spans="1:1">
-      <c r="A82" s="3" t="s">
+    <row r="159" s="4" customFormat="1" spans="1:1">
+      <c r="A159" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" s="4" customFormat="1"/>
-    <row r="84" s="4" customFormat="1"/>
-    <row r="85" s="4" customFormat="1"/>
-    <row r="86" s="4" customFormat="1" spans="2:2">
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" s="4" customFormat="1" spans="2:2">
-      <c r="B87" s="9"/>
-    </row>
-    <row r="88" s="4" customFormat="1" spans="2:2">
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" s="4" customFormat="1" spans="2:2">
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="2:2">
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="2:2">
-      <c r="B91" s="9"/>
-    </row>
-    <row r="92" s="4" customFormat="1" spans="2:2">
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" s="4" customFormat="1" spans="2:2">
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" s="4" customFormat="1" spans="2:2">
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" s="4" customFormat="1" spans="2:3">
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-    </row>
-    <row r="96" s="4" customFormat="1" spans="2:2">
-      <c r="B96" s="9"/>
-    </row>
-    <row r="97" s="4" customFormat="1" spans="2:2">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" s="4" customFormat="1" spans="2:2">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="9"/>
-    </row>
-    <row r="184" s="2" customFormat="1"/>
-    <row r="185" s="2" customFormat="1"/>
-    <row r="186" s="2" customFormat="1"/>
-    <row r="187" s="2" customFormat="1"/>
-    <row r="188" s="3" customFormat="1"/>
-    <row r="189" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/STM32（六）DMA.xlsx
+++ b/STM32（六）DMA.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="5" r:id="rId1"/>
     <sheet name="RTC" sheetId="6" r:id="rId2"/>
     <sheet name="IIC" sheetId="7" r:id="rId3"/>
     <sheet name="485" sheetId="8" r:id="rId4"/>
-    <sheet name="can" sheetId="9" r:id="rId5"/>
+    <sheet name="can讲解（视频笔记）" sheetId="9" r:id="rId5"/>
+    <sheet name="can讲解（读书笔记）" sheetId="10" r:id="rId6"/>
+    <sheet name="STM32的can" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="198">
   <si>
     <t>STM32</t>
   </si>
@@ -565,6 +567,391 @@
     <t>连续发显性电平多的仲裁成功，竞争失败的就要转成接收</t>
   </si>
   <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>can是什么？</t>
+  </si>
+  <si>
+    <t>CAN 是 Controller Area Network 的缩写（以下称为 CAN），是 ISO*1 国际标准化的串行通信协议。</t>
+  </si>
+  <si>
+    <t>在当前的汽车产业中，出于对安全性、舒适性、方便性、低公害、低成本的要求，各种各样的电子控制系统被开发了出来。</t>
+  </si>
+  <si>
+    <t>由于这些系统之间通信所用的数据类型及对可靠性的要求不尽相同，由多条总线构成的情况很多，线束的数量也随之增加。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">为适应“减少线束的数量”、“通过多个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，进行大量数据的高速通信”的需要，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1986 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">年德国电气商博世公司开发出面向汽车的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信协议。此后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通过 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ISO11898 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">及 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ISO11519 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行了标准化，现在在欧洲已是汽车网络的标准协议。</t>
+    </r>
+  </si>
+  <si>
+    <t>现在，CAN 的高性能和可靠性已被认同，并被广泛地应用于工业自动化、船舶、医疗设备、工业设备等方面</t>
+  </si>
+  <si>
+    <r>
+      <t>下图是车载网络的构想示意图。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">等通信协议的开发，使多种 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过网关进行数据交换得以实现</t>
+    </r>
+  </si>
+  <si>
+    <t>can的拓扑结构：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制器根据两根线上的电位差来判断总线电平。总线电平分为显性电平和隐性电平，二者必居其一。发送方通过使总线电平发生变化，将消息发送给接收方。</t>
+    </r>
+  </si>
+  <si>
+    <t>⑴多主控制</t>
+  </si>
+  <si>
+    <t>在总线空闲时，所有的单元都可开始发送消息（多主控制）。</t>
+  </si>
+  <si>
+    <r>
+      <t>最先访问总线的单元可获得发送权（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CSMA/CA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">多个单元同时开始发送时，发送高优先级 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息的单元可获得发送权。</t>
+    </r>
+  </si>
+  <si>
+    <t>⑵消息的发送</t>
+  </si>
+  <si>
+    <t>在 CAN 协议中，所有的消息都以固定的格式发送。总线空闲时，所有与总线相连的单元都可以开始发送新
+消息。两个以上的单元同时开始发送消息时，</t>
+  </si>
+  <si>
+    <t>根据标识符（Identifier 以下称为 ID）决定优先级。ID 并不是表示发送的目的地址，而是表示访问总线的消息的优先级。</t>
+  </si>
+  <si>
+    <t>两个以上的单元同时开始发送消息时，对各消息 ID 的每个位进行逐个仲裁比较。仲裁获胜（被判定为优先级最高）的单元可继续发送消息，仲裁失利的单元则立刻停止发送而进行接收工作。</t>
+  </si>
+  <si>
+    <t>⑶总线的柔软性</t>
+  </si>
+  <si>
+    <t>与总线相连的单元没有类似于“地址”的信息。因此在总线上增加单元时，连接在总线上的其它单元的软硬件及应用层都不需要改变</t>
+  </si>
+  <si>
+    <t>⑷总线的速度</t>
+  </si>
+  <si>
+    <t>根据整个网络的规模，可设定适合的通信速度。在同一网络中，所有单元必须设定成统一的通信速度。</t>
+  </si>
+  <si>
+    <t>即使有一个单元的通信速度与其它的不一样，此单元也会输出错误信号，妨碍整个网络的通信。不同网络间则可以有不同的通信速度</t>
+  </si>
+  <si>
+    <t>⑸远程数据请求</t>
+  </si>
+  <si>
+    <t>可通过发送“遥控帧” 请求其他单元发送数据</t>
+  </si>
+  <si>
+    <t>⑹错误检测功能·错误通知功能·错误恢复功能</t>
+  </si>
+  <si>
+    <t>所有的单元都可以检测错误（错误检测功能）。检测出错误的单元会立即同时通知其他所有单元（错误通知功能）</t>
+  </si>
+  <si>
+    <t>正在发送消息的单元一旦检测出错误，会强制结束当前的发送。强制结束发送的单元会不断反复地重新发送此消息直到成功发送为止（错误恢复功能）。</t>
+  </si>
+  <si>
+    <t>⑺故障封闭</t>
+  </si>
+  <si>
+    <t>CAN 可以判断出错误的类型是总线上暂时的数据错误（如外部噪声等）还是持续的数据错误（如单元内部故障、驱动器故障、断线等）。</t>
+  </si>
+  <si>
+    <t>由此功能，当总线上发生持续数据错误时，可将引起此故障的单元从总线上隔离出去</t>
+  </si>
+  <si>
+    <t>⑻连接</t>
+  </si>
+  <si>
+    <t>CAN总线是可同时连接多个单元的总线。可连接的单元总数理论上是没有限制的。但实际上可连接的单元数受总线上的时间延迟及电气负载的限制。</t>
+  </si>
+  <si>
+    <t>降低通信速度，可连接的单元数增加；提高通信速度，则可连接的单元数减少</t>
+  </si>
+  <si>
+    <t>错误：</t>
+  </si>
+  <si>
+    <t>错误的状态一共三种，主动错误状态，被动错误状态，总线关闭态，单元始终处于 3 种状态之一。</t>
+  </si>
+  <si>
+    <t>⑴主动错误状态</t>
+  </si>
+  <si>
+    <t>主动错误状态是可以正常参加总线通信的状态。处于主动错误状态的单元检测出错误时，输出主动错误标志</t>
+  </si>
+  <si>
+    <t>⑵被动错误状态</t>
+  </si>
+  <si>
+    <t>被动错误状态是易引起错误的状态。处于被动错误状态的单元虽能参加总线通信，但为不妨碍其它单元通信，接收时不能积极地发送错误通知。</t>
+  </si>
+  <si>
+    <t>处于被动错误状态的单元即使检测出错误，而其它处于主动错误状态的单元如果没发现错误，整个总线也被认为是没有错误的。</t>
+  </si>
+  <si>
+    <t>处于被动错误状态的单元检测出错误时，输出被动错误标志。</t>
+  </si>
+  <si>
+    <t>另外，处于被动错误状态的单元在发送结束后不能马上再次开始发送。在开始下次发送前，在间隔帧期间内必须插入“延迟传送”(8 个位的隐性位)。</t>
+  </si>
+  <si>
+    <t>⑶总线关闭态</t>
+  </si>
+  <si>
+    <t>总线关闭态是不能参加总线上通信的状态。信息的接收和发送均被禁止。</t>
+  </si>
+  <si>
+    <t>这些状态依靠发送错误计数和接收错误计数来管理，根据计数值决定进入何种状态。错误状态和计数值的关系如表 1 及图 4 所示。</t>
+  </si>
+  <si>
+    <t>错误计数值</t>
+  </si>
+  <si>
+    <t>发送错误计数值和接收错误计数值根据一定的条件发生变化</t>
+  </si>
+  <si>
+    <t>一次数据的接收和发送可能同时满足多个条件。</t>
+  </si>
+  <si>
+    <t>错误计数器在错误标志的第一个位出现的时间点上开始计数。</t>
+  </si>
+  <si>
+    <r>
+      <t>CAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>协议的基本概念</t>
+    </r>
+  </si>
+  <si>
+    <t>CAN对应标准模型图</t>
+  </si>
+  <si>
+    <t>不想写了，跟视频一样</t>
+  </si>
+  <si>
     <t>该学can第二集了</t>
   </si>
 </sst>
@@ -578,7 +965,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,28 +981,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +995,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -637,14 +1024,39 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.95"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,9 +1069,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,20 +1078,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,19 +1091,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,8 +1146,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +1177,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,11 +1199,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9.95"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -802,12 +1233,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,7 +1245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="1" tint="0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,31 +1263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +1275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,6 +1305,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,109 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,21 +1478,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,15 +1530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1134,6 +1541,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,7 +1590,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,207 +1599,222 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2723,6 +3169,221 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="1666240"/>
+          <a:ext cx="6566535" cy="3631565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>259715</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="5781675"/>
+          <a:ext cx="6574790" cy="4346575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="16595725"/>
+          <a:ext cx="5894705" cy="1286510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="18821400"/>
+          <a:ext cx="3945255" cy="3249295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737870" y="22272625"/>
+          <a:ext cx="3968750" cy="3656965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3013,478 +3674,478 @@
   <dimension ref="A1:AE202"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="5"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:27">
-      <c r="A2" s="5" t="s">
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="2:2">
-      <c r="B3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="3:3">
-      <c r="C4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:3">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="3:3">
-      <c r="C5" s="5" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:3">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="3:3">
-      <c r="C6" s="5" t="s">
+    <row r="6" s="1" customFormat="1" spans="3:3">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="3:3">
-      <c r="C7" s="5" t="s">
+    <row r="7" s="1" customFormat="1" spans="3:3">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="2:2">
-      <c r="B8" s="5" t="s">
+    <row r="8" s="1" customFormat="1" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="3:3">
-      <c r="C9" s="5" t="s">
+    <row r="9" s="1" customFormat="1" spans="3:3">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="3:3">
-      <c r="C10" s="5" t="s">
+    <row r="10" s="1" customFormat="1" spans="3:3">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="3:3">
-      <c r="C11" s="5" t="s">
+    <row r="11" s="1" customFormat="1" spans="3:3">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="3:3">
-      <c r="C12" s="5" t="s">
+    <row r="12" s="1" customFormat="1" spans="3:3">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="3:3">
-      <c r="C13" s="5" t="s">
+    <row r="13" s="1" customFormat="1" spans="3:3">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="3:3">
-      <c r="C14" s="5" t="s">
+    <row r="14" s="1" customFormat="1" spans="3:3">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" spans="3:3">
-      <c r="C15" s="5" t="s">
+    <row r="15" s="1" customFormat="1" spans="3:3">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="16.5" spans="3:3">
-      <c r="C16" s="5" t="s">
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="3:3">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="3:3">
-      <c r="C17" s="5" t="s">
+    <row r="17" s="1" customFormat="1" spans="3:3">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="2:2">
-      <c r="B18" s="5" t="s">
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="16.5" spans="3:3">
-      <c r="C19" s="20" t="s">
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="3:3">
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="3:3">
-      <c r="C20" s="5" t="s">
+    <row r="20" s="1" customFormat="1" spans="3:3">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="3:3">
-      <c r="C21" s="5" t="s">
+    <row r="21" s="1" customFormat="1" spans="3:3">
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="3:3">
-      <c r="C22" s="5" t="s">
+    <row r="22" s="1" customFormat="1" spans="3:3">
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="3:3">
-      <c r="C23" s="5" t="s">
+    <row r="23" s="1" customFormat="1" spans="3:3">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="2:2">
-      <c r="B24" s="5" t="s">
+    <row r="24" s="1" customFormat="1" spans="2:2">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="3:3">
-      <c r="C25" s="5" t="s">
+    <row r="25" s="1" customFormat="1" spans="3:3">
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="3:3">
-      <c r="C26" s="5" t="s">
+    <row r="26" s="1" customFormat="1" spans="3:3">
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="3:3">
-      <c r="C27" s="5" t="s">
+    <row r="27" s="1" customFormat="1" spans="3:3">
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="3:3">
-      <c r="C28" s="5" t="s">
+    <row r="28" s="1" customFormat="1" spans="3:3">
+      <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="3:3">
-      <c r="C29" s="5" t="s">
+    <row r="29" s="1" customFormat="1" spans="3:3">
+      <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="3:3">
-      <c r="C30" s="5" t="s">
+    <row r="30" s="1" customFormat="1" spans="3:3">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="3:3">
-      <c r="C31" s="5" t="s">
+    <row r="31" s="1" customFormat="1" spans="3:3">
+      <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" spans="3:3">
-      <c r="C32" s="5" t="s">
+    <row r="32" s="1" customFormat="1" spans="3:3">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="3:3">
-      <c r="C33" s="5" t="s">
+    <row r="33" s="1" customFormat="1" spans="3:3">
+      <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="3:3">
-      <c r="C34" s="5" t="s">
+    <row r="34" s="1" customFormat="1" spans="3:3">
+      <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" s="5" customFormat="1" spans="3:3">
-      <c r="C35" s="5" t="s">
+    <row r="35" s="1" customFormat="1" spans="3:3">
+      <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" spans="2:2">
-      <c r="B36" s="5" t="s">
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" spans="2:3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="5" t="s">
+    <row r="37" s="1" customFormat="1" spans="2:3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" spans="2:3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="5" t="s">
+    <row r="38" s="1" customFormat="1" spans="2:3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" s="5" customFormat="1" spans="2:3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16" t="s">
+    <row r="39" s="1" customFormat="1" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" s="5" customFormat="1" spans="2:3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16" t="s">
+    <row r="40" s="1" customFormat="1" spans="2:3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" s="5" customFormat="1" spans="2:3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="5" t="s">
+    <row r="41" s="1" customFormat="1" spans="2:3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="5" customFormat="1" spans="2:3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="5" t="s">
+    <row r="42" s="1" customFormat="1" spans="2:3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" s="5" customFormat="1" spans="2:2">
+    <row r="43" s="1" customFormat="1" spans="2:2">
       <c r="B43"/>
     </row>
-    <row r="44" s="5" customFormat="1" spans="2:3">
-      <c r="B44" s="22" t="s">
+    <row r="44" s="1" customFormat="1" spans="2:3">
+      <c r="B44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="2:3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="15" t="s">
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" s="5" customFormat="1" spans="2:2">
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="2:2">
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="2:2">
-      <c r="B48" s="15"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="2:2">
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="2:2">
-      <c r="B50" s="15"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="2:2">
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="2:2">
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="2:2">
-      <c r="B53" s="15"/>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="2:2">
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="2:2">
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="2:2">
-      <c r="B56" s="15"/>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="2:2">
-      <c r="B57" s="15"/>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="2:2">
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" s="5" customFormat="1" spans="2:2">
-      <c r="B59" s="15"/>
-    </row>
-    <row r="60" s="5" customFormat="1" spans="2:2">
-      <c r="B60" s="15"/>
-    </row>
-    <row r="61" s="5" customFormat="1" spans="2:2">
-      <c r="B61" s="15"/>
-    </row>
-    <row r="62" s="5" customFormat="1" spans="2:2">
-      <c r="B62" s="15"/>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="2:2">
-      <c r="B63" s="15"/>
-    </row>
-    <row r="64" s="5" customFormat="1" spans="2:2">
-      <c r="B64" s="15"/>
-    </row>
-    <row r="65" s="5" customFormat="1" spans="2:2">
-      <c r="B65" s="15"/>
-    </row>
-    <row r="66" s="5" customFormat="1" spans="2:2">
-      <c r="B66" s="15"/>
-    </row>
-    <row r="67" s="5" customFormat="1" spans="2:2">
-      <c r="B67" s="15"/>
-    </row>
-    <row r="68" s="5" customFormat="1" spans="2:2">
-      <c r="B68" s="15"/>
-    </row>
-    <row r="69" s="5" customFormat="1" spans="2:2">
-      <c r="B69" s="15"/>
-    </row>
-    <row r="70" s="5" customFormat="1" spans="2:2">
-      <c r="B70" s="15"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="2:2">
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="2:2">
-      <c r="B72" s="15"/>
-    </row>
-    <row r="73" s="5" customFormat="1" spans="2:2">
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" s="5" customFormat="1" spans="2:2">
-      <c r="B74" s="15"/>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="2:2">
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" s="5" customFormat="1" spans="2:2">
-      <c r="B76" s="15"/>
-    </row>
-    <row r="77" s="5" customFormat="1" spans="2:2">
-      <c r="B77" s="15"/>
-    </row>
-    <row r="78" s="5" customFormat="1" spans="2:2">
-      <c r="B78" s="15"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:1">
-      <c r="A80" s="3" t="s">
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:2">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:2">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:2">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:2">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:2">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:2">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:2">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:2">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:2">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:2">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:2">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:2">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:2">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:2">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:2">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:1">
+      <c r="A80" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:1">
-      <c r="A81" s="3" t="s">
+    <row r="81" s="2" customFormat="1" spans="1:1">
+      <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1"/>
-    <row r="83" s="3" customFormat="1" spans="1:1">
-      <c r="A83" s="3" t="s">
+    <row r="82" s="2" customFormat="1"/>
+    <row r="83" s="2" customFormat="1" spans="1:1">
+      <c r="A83" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" s="4" customFormat="1" spans="1:1">
-      <c r="A84" s="4" t="s">
+    <row r="84" s="3" customFormat="1" spans="1:1">
+      <c r="A84" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" s="4" customFormat="1" spans="1:1">
-      <c r="A85" s="4" t="s">
+    <row r="85" s="3" customFormat="1" spans="1:1">
+      <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" s="5" customFormat="1" spans="2:2">
-      <c r="B86" s="15"/>
-    </row>
-    <row r="87" s="5" customFormat="1" spans="2:2">
-      <c r="B87" s="15"/>
+    <row r="86" s="1" customFormat="1" spans="2:2">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:2">
+      <c r="B87" s="7"/>
     </row>
     <row r="88" customFormat="1" spans="2:3">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" s="5" customFormat="1" spans="2:2">
-      <c r="B89" s="15"/>
-    </row>
-    <row r="90" s="14" customFormat="1" spans="3:3">
-      <c r="C90" s="16"/>
-    </row>
-    <row r="91" s="14" customFormat="1" spans="3:3">
-      <c r="C91" s="16"/>
-    </row>
-    <row r="92" s="14" customFormat="1"/>
-    <row r="93" s="14" customFormat="1"/>
-    <row r="94" s="14" customFormat="1"/>
-    <row r="95" s="14" customFormat="1"/>
-    <row r="96" s="14" customFormat="1"/>
-    <row r="97" s="14" customFormat="1"/>
-    <row r="98" s="14" customFormat="1"/>
-    <row r="99" s="14" customFormat="1" spans="2:2">
-      <c r="B99" s="19"/>
-    </row>
-    <row r="100" s="14" customFormat="1" spans="2:2">
-      <c r="B100" s="19"/>
-    </row>
-    <row r="101" s="14" customFormat="1" spans="2:2">
-      <c r="B101" s="19"/>
-    </row>
-    <row r="102" s="14" customFormat="1" spans="2:2">
-      <c r="B102" s="19"/>
-    </row>
-    <row r="103" s="14" customFormat="1" spans="2:2">
-      <c r="B103" s="19"/>
-    </row>
-    <row r="104" s="14" customFormat="1" spans="2:2">
-      <c r="B104" s="19"/>
-    </row>
-    <row r="105" s="14" customFormat="1" spans="2:2">
-      <c r="B105" s="19"/>
-    </row>
-    <row r="106" s="14" customFormat="1" spans="2:2">
-      <c r="B106" s="19"/>
-    </row>
-    <row r="107" s="14" customFormat="1" spans="2:2">
-      <c r="B107" s="19"/>
-    </row>
-    <row r="108" s="14" customFormat="1" spans="2:3">
-      <c r="B108" s="19"/>
-      <c r="C108" s="21"/>
-    </row>
-    <row r="109" s="14" customFormat="1" spans="2:2">
-      <c r="B109" s="19"/>
-    </row>
-    <row r="110" s="14" customFormat="1" spans="2:2">
-      <c r="B110" s="15"/>
-    </row>
-    <row r="111" s="14" customFormat="1" spans="2:2">
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" s="14" customFormat="1" spans="2:2">
-      <c r="B112" s="19"/>
-    </row>
-    <row r="197" s="3" customFormat="1"/>
-    <row r="198" s="3" customFormat="1"/>
-    <row r="199" s="3" customFormat="1"/>
-    <row r="200" s="3" customFormat="1"/>
-    <row r="201" s="4" customFormat="1"/>
-    <row r="202" s="4" customFormat="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:2">
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="3:3">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="3:3">
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" s="4" customFormat="1"/>
+    <row r="93" s="4" customFormat="1"/>
+    <row r="94" s="4" customFormat="1"/>
+    <row r="95" s="4" customFormat="1"/>
+    <row r="96" s="4" customFormat="1"/>
+    <row r="97" s="4" customFormat="1"/>
+    <row r="98" s="4" customFormat="1"/>
+    <row r="99" s="4" customFormat="1" spans="2:2">
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="2:2">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="2:2">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="2:2">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="2:2">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="2:2">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="2:2">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="2:2">
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="2:2">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="2:3">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" s="4" customFormat="1" spans="2:2">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110" s="4" customFormat="1" spans="2:2">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" s="4" customFormat="1" spans="2:2">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" s="4" customFormat="1" spans="2:2">
+      <c r="B112" s="13"/>
+    </row>
+    <row r="197" s="2" customFormat="1"/>
+    <row r="198" s="2" customFormat="1"/>
+    <row r="199" s="2" customFormat="1"/>
+    <row r="200" s="2" customFormat="1"/>
+    <row r="201" s="3" customFormat="1"/>
+    <row r="202" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3502,257 +4163,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="5"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:27">
-      <c r="A2" s="5" t="s">
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="2:2">
-      <c r="B3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="3:3">
-      <c r="C4" s="15" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:3">
+      <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="3:3">
-      <c r="C19" s="20"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="2:2">
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="2:2">
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="2:3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="2:3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-    </row>
-    <row r="41" s="5" customFormat="1" spans="2:2">
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="2:2">
-      <c r="B42" s="15"/>
-    </row>
-    <row r="43" s="5" customFormat="1" spans="2:2">
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="2:2">
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="2:2">
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="2:2">
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="2:2">
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="2:2">
-      <c r="B48" s="15"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="2:2">
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="2:2">
-      <c r="B50" s="15"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="2:2">
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="2:2">
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="2:2">
-      <c r="B53" s="15"/>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="2:2">
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="2:2">
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="2:2">
-      <c r="B56" s="15"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:1">
-      <c r="A57" s="3" t="s">
+    <row r="19" s="1" customFormat="1" spans="3:3">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:2">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:1">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:1">
-      <c r="A58" s="3" t="s">
+    <row r="58" s="2" customFormat="1" spans="1:1">
+      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1"/>
-    <row r="60" s="3" customFormat="1" spans="1:1">
-      <c r="A60" s="3" t="s">
+    <row r="59" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" spans="1:1">
-      <c r="A61" s="4" t="s">
+    <row r="61" s="3" customFormat="1" spans="1:1">
+      <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:1">
-      <c r="A62" s="4" t="s">
+    <row r="62" s="3" customFormat="1" spans="1:1">
+      <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="1" spans="2:2">
-      <c r="B63" s="15"/>
-    </row>
-    <row r="64" s="5" customFormat="1" spans="2:2">
-      <c r="B64" s="15"/>
-    </row>
-    <row r="65" s="5" customFormat="1" spans="2:2">
-      <c r="B65" s="15"/>
-    </row>
-    <row r="66" s="5" customFormat="1" spans="2:2">
-      <c r="B66" s="15"/>
-    </row>
-    <row r="67" s="5" customFormat="1" spans="2:2">
-      <c r="B67" s="15"/>
-    </row>
-    <row r="68" s="5" customFormat="1" spans="2:2">
-      <c r="B68" s="15"/>
-    </row>
-    <row r="69" s="5" customFormat="1" spans="2:2">
-      <c r="B69" s="15"/>
-    </row>
-    <row r="70" s="5" customFormat="1" spans="2:2">
-      <c r="B70" s="15"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="2:2">
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="2:2">
-      <c r="B72" s="15"/>
-    </row>
-    <row r="73" s="5" customFormat="1" spans="2:2">
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" s="5" customFormat="1" spans="2:2">
-      <c r="B74" s="15"/>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="2:2">
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" s="5" customFormat="1" spans="2:2">
-      <c r="B76" s="15"/>
-    </row>
-    <row r="77" s="5" customFormat="1" spans="2:2">
-      <c r="B77" s="15"/>
-    </row>
-    <row r="78" s="5" customFormat="1" spans="2:2">
-      <c r="B78" s="15"/>
-    </row>
-    <row r="80" s="14" customFormat="1"/>
-    <row r="81" s="14" customFormat="1"/>
-    <row r="82" s="14" customFormat="1"/>
-    <row r="83" s="14" customFormat="1"/>
-    <row r="84" s="14" customFormat="1"/>
-    <row r="85" s="14" customFormat="1"/>
-    <row r="86" s="14" customFormat="1"/>
-    <row r="87" s="14" customFormat="1" spans="2:2">
-      <c r="B87" s="19"/>
-    </row>
-    <row r="88" s="14" customFormat="1" spans="2:2">
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" s="14" customFormat="1" spans="2:2">
-      <c r="B89" s="19"/>
-    </row>
-    <row r="90" s="14" customFormat="1" spans="2:2">
-      <c r="B90" s="19"/>
-    </row>
-    <row r="91" s="14" customFormat="1" spans="2:2">
-      <c r="B91" s="19"/>
-    </row>
-    <row r="92" s="14" customFormat="1" spans="2:2">
-      <c r="B92" s="19"/>
-    </row>
-    <row r="93" s="14" customFormat="1" spans="2:2">
-      <c r="B93" s="19"/>
-    </row>
-    <row r="94" s="14" customFormat="1" spans="2:2">
-      <c r="B94" s="19"/>
-    </row>
-    <row r="95" s="14" customFormat="1" spans="2:2">
-      <c r="B95" s="19"/>
-    </row>
-    <row r="96" s="14" customFormat="1" spans="2:3">
-      <c r="B96" s="19"/>
-      <c r="C96" s="21"/>
-    </row>
-    <row r="97" s="14" customFormat="1" spans="2:2">
-      <c r="B97" s="19"/>
-    </row>
-    <row r="98" s="14" customFormat="1" spans="2:2">
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99" s="14" customFormat="1" spans="2:2">
-      <c r="B99" s="15"/>
-    </row>
-    <row r="100" s="14" customFormat="1" spans="2:2">
-      <c r="B100" s="19"/>
-    </row>
-    <row r="185" s="3" customFormat="1"/>
-    <row r="186" s="3" customFormat="1"/>
-    <row r="187" s="3" customFormat="1"/>
-    <row r="188" s="3" customFormat="1"/>
-    <row r="189" s="4" customFormat="1"/>
-    <row r="190" s="4" customFormat="1"/>
+    <row r="63" s="1" customFormat="1" spans="2:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:2">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:2">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:2">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:2">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:2">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:2">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:2">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:2">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:2">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:2">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:2">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="80" s="4" customFormat="1"/>
+    <row r="81" s="4" customFormat="1"/>
+    <row r="82" s="4" customFormat="1"/>
+    <row r="83" s="4" customFormat="1"/>
+    <row r="84" s="4" customFormat="1"/>
+    <row r="85" s="4" customFormat="1"/>
+    <row r="86" s="4" customFormat="1"/>
+    <row r="87" s="4" customFormat="1" spans="2:2">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="2:2">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="2:2">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="2:2">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="2:2">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="2:2">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="2:2">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="2:2">
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="2:2">
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="2:3">
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="2:2">
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="2:2">
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" s="4" customFormat="1" spans="2:2">
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="2:2">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="185" s="2" customFormat="1"/>
+    <row r="186" s="2" customFormat="1"/>
+    <row r="187" s="2" customFormat="1"/>
+    <row r="188" s="2" customFormat="1"/>
+    <row r="189" s="3" customFormat="1"/>
+    <row r="190" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3770,309 +4431,309 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="5"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:27">
-      <c r="A2" s="5" t="s">
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="2:2">
-      <c r="B3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="3:3">
-      <c r="C4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:3">
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="2:2">
-      <c r="B5" s="5" t="s">
+    <row r="5" s="1" customFormat="1" spans="2:2">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="3:3">
-      <c r="C6" s="5" t="s">
+    <row r="6" s="1" customFormat="1" spans="3:3">
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="3:3">
-      <c r="C11" s="5" t="s">
+    <row r="11" s="1" customFormat="1" spans="3:3">
+      <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="3:3">
-      <c r="C12" s="5" t="s">
+    <row r="12" s="1" customFormat="1" spans="3:3">
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="3:3">
-      <c r="C13" s="16" t="s">
+    <row r="13" s="1" customFormat="1" spans="3:3">
+      <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="3:3">
-      <c r="C14" s="16" t="s">
+    <row r="14" s="1" customFormat="1" spans="3:3">
+      <c r="C14" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" spans="3:3">
-      <c r="C15" s="5" t="s">
+    <row r="15" s="1" customFormat="1" spans="3:3">
+      <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" spans="3:3">
-      <c r="C16" s="5" t="s">
+    <row r="16" s="1" customFormat="1" spans="3:3">
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="3:3">
-      <c r="C17" s="5" t="s">
+    <row r="17" s="1" customFormat="1" spans="3:3">
+      <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="2:2">
-      <c r="B18" s="5" t="s">
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="3:3">
-      <c r="C19" s="5" t="s">
+    <row r="19" s="1" customFormat="1" spans="3:3">
+      <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="3:3">
-      <c r="C20" s="5" t="s">
+    <row r="20" s="1" customFormat="1" spans="3:3">
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="4:4">
-      <c r="D29" s="5" t="s">
+    <row r="29" s="1" customFormat="1" spans="4:4">
+      <c r="D29" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="3:3">
-      <c r="C30" s="5" t="s">
+    <row r="30" s="1" customFormat="1" spans="3:3">
+      <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" spans="2:2">
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="2:2">
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="2:3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="2:3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16" t="s">
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" s="5" customFormat="1" spans="2:4">
-      <c r="B40" s="15"/>
-      <c r="D40" s="5" t="s">
+    <row r="40" s="1" customFormat="1" spans="2:4">
+      <c r="B40" s="7"/>
+      <c r="D40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" s="5" customFormat="1" spans="2:2">
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="2:2">
-      <c r="B42" s="15"/>
-    </row>
-    <row r="43" s="5" customFormat="1" spans="2:2">
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="2:2">
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="2:2">
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="2:2">
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="2:2">
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="2:2">
-      <c r="B48" s="15"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="2:2">
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="2:3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16" t="s">
+    <row r="41" s="1" customFormat="1" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" s="5" customFormat="1" spans="2:2">
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="2:2">
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="2:2">
-      <c r="B53" s="15"/>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="2:2">
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="2:2">
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="4:4">
-      <c r="D56" s="5" t="s">
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="4:4">
+      <c r="D56" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" s="5" customFormat="1" spans="3:3">
-      <c r="C57" s="5" t="s">
+    <row r="57" s="1" customFormat="1" spans="3:3">
+      <c r="C57" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" spans="4:4">
-      <c r="D58" s="15" t="s">
+    <row r="58" s="1" customFormat="1" spans="4:4">
+      <c r="D58" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" spans="2:2">
-      <c r="B59" s="5" t="s">
+    <row r="59" s="1" customFormat="1" spans="2:2">
+      <c r="B59" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="1" spans="3:3">
-      <c r="C60" s="5" t="s">
+    <row r="60" s="1" customFormat="1" spans="3:3">
+      <c r="C60" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" spans="3:3">
-      <c r="C61" s="5" t="s">
+    <row r="61" s="1" customFormat="1" spans="3:3">
+      <c r="C61" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" spans="2:2">
-      <c r="B62" s="15"/>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="2:2">
-      <c r="B63" s="15"/>
-    </row>
-    <row r="64" s="5" customFormat="1" spans="2:2">
-      <c r="B64" s="15"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="2:2">
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="2:2">
-      <c r="B72" s="15"/>
-    </row>
-    <row r="73" s="5" customFormat="1" spans="2:2">
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" s="5" customFormat="1" spans="2:2">
-      <c r="B74" s="15"/>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="2:2">
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" s="5" customFormat="1" spans="2:2">
-      <c r="B76" s="15"/>
-    </row>
-    <row r="83" s="14" customFormat="1"/>
-    <row r="84" s="14" customFormat="1"/>
-    <row r="85" s="14" customFormat="1"/>
-    <row r="86" s="14" customFormat="1" spans="2:2">
-      <c r="B86" s="19"/>
-    </row>
-    <row r="87" s="14" customFormat="1" spans="2:2">
-      <c r="B87" s="19"/>
-    </row>
-    <row r="88" s="14" customFormat="1" spans="2:2">
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" s="14" customFormat="1" spans="2:2">
-      <c r="B89" s="19"/>
-    </row>
-    <row r="90" s="14" customFormat="1" spans="2:2">
-      <c r="B90" s="19"/>
-    </row>
-    <row r="91" s="14" customFormat="1" spans="2:2">
-      <c r="B91" s="19"/>
-    </row>
-    <row r="92" s="14" customFormat="1" spans="2:2">
-      <c r="B92" s="19"/>
-    </row>
-    <row r="93" s="14" customFormat="1" spans="2:2">
-      <c r="B93" s="19"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:1">
-      <c r="A102" s="3" t="s">
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:2">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:2">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:2">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="83" s="4" customFormat="1"/>
+    <row r="84" s="4" customFormat="1"/>
+    <row r="85" s="4" customFormat="1"/>
+    <row r="86" s="4" customFormat="1" spans="2:2">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" s="4" customFormat="1" spans="2:2">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="2:2">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="2:2">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="2:2">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="2:2">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="2:2">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="2:2">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:1">
+      <c r="A102" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:1">
-      <c r="A103" s="3" t="s">
+    <row r="103" s="2" customFormat="1" spans="1:1">
+      <c r="A103" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="104" s="3" customFormat="1"/>
-    <row r="105" s="3" customFormat="1" spans="1:1">
-      <c r="A105" s="3" t="s">
+    <row r="104" s="2" customFormat="1"/>
+    <row r="105" s="2" customFormat="1" spans="1:1">
+      <c r="A105" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:1">
-      <c r="A106" s="4" t="s">
+    <row r="106" s="3" customFormat="1" spans="1:1">
+      <c r="A106" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="107" s="4" customFormat="1" spans="1:1">
-      <c r="A107" s="4" t="s">
+    <row r="107" s="3" customFormat="1" spans="1:1">
+      <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4094,206 +4755,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="5"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:27">
-      <c r="A2" s="5" t="s">
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="3:3">
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="3:3">
-      <c r="C14" s="16"/>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="2:2">
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="2:2">
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="2:3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="2:3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="2:2">
-      <c r="B40" s="15"/>
-    </row>
-    <row r="41" s="5" customFormat="1" spans="2:2">
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="2:2">
-      <c r="B42" s="15"/>
-    </row>
-    <row r="43" s="5" customFormat="1" spans="2:2">
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="2:2">
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="2:2">
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="2:2">
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="2:2">
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="2:2">
-      <c r="B48" s="15"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="2:2">
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="2:3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="2:2">
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="2:2">
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="2:2">
-      <c r="B53" s="15"/>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="2:2">
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="2:2">
-      <c r="B55" s="15"/>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="4:4">
-      <c r="D58" s="15"/>
-    </row>
-    <row r="62" s="5" customFormat="1" spans="2:2">
-      <c r="B62" s="15"/>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="2:2">
-      <c r="B63" s="15"/>
-    </row>
-    <row r="64" s="5" customFormat="1" spans="2:2">
-      <c r="B64" s="15"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="2:2">
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="2:2">
-      <c r="B72" s="15"/>
-    </row>
-    <row r="73" s="5" customFormat="1" spans="2:2">
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" s="5" customFormat="1" spans="2:2">
-      <c r="B74" s="15"/>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="2:2">
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" s="5" customFormat="1" spans="2:2">
-      <c r="B76" s="15"/>
-    </row>
-    <row r="83" s="14" customFormat="1"/>
-    <row r="84" s="14" customFormat="1"/>
-    <row r="85" s="14" customFormat="1"/>
-    <row r="86" s="14" customFormat="1" spans="2:2">
-      <c r="B86" s="19"/>
-    </row>
-    <row r="87" s="14" customFormat="1" spans="2:2">
-      <c r="B87" s="19"/>
-    </row>
-    <row r="88" s="14" customFormat="1" spans="2:2">
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" s="14" customFormat="1" spans="2:2">
-      <c r="B89" s="19"/>
-    </row>
-    <row r="90" s="14" customFormat="1" spans="2:2">
-      <c r="B90" s="19"/>
-    </row>
-    <row r="91" s="14" customFormat="1" spans="2:2">
-      <c r="B91" s="19"/>
-    </row>
-    <row r="92" s="14" customFormat="1" spans="2:2">
-      <c r="B92" s="19"/>
-    </row>
-    <row r="93" s="14" customFormat="1" spans="2:2">
-      <c r="B93" s="19"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:1">
-      <c r="A102" s="3" t="s">
+    <row r="13" s="1" customFormat="1" spans="3:3">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:3">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="4:4">
+      <c r="D58" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:2">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:2">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:2">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="83" s="4" customFormat="1"/>
+    <row r="84" s="4" customFormat="1"/>
+    <row r="85" s="4" customFormat="1"/>
+    <row r="86" s="4" customFormat="1" spans="2:2">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" s="4" customFormat="1" spans="2:2">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="2:2">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="2:2">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="2:2">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="2:2">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="2:2">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="2:2">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:1">
+      <c r="A102" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:1">
-      <c r="A103" s="3" t="s">
+    <row r="103" s="2" customFormat="1" spans="1:1">
+      <c r="A103" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="104" s="3" customFormat="1"/>
-    <row r="105" s="3" customFormat="1" spans="1:1">
-      <c r="A105" s="3" t="s">
+    <row r="104" s="2" customFormat="1"/>
+    <row r="105" s="2" customFormat="1" spans="1:1">
+      <c r="A105" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:1">
-      <c r="A106" s="4" t="s">
+    <row r="106" s="3" customFormat="1" spans="1:1">
+      <c r="A106" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="107" s="4" customFormat="1" spans="1:1">
-      <c r="A107" s="4" t="s">
+    <row r="107" s="3" customFormat="1" spans="1:1">
+      <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4308,554 +4969,564 @@
   <sheetPr/>
   <dimension ref="A1:AE159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="5"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+    <row r="1" s="19" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="1" t="s">
+      <c r="AE1" s="23"/>
+    </row>
+    <row r="2" s="19" customFormat="1" spans="1:27">
+      <c r="A2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="19" customFormat="1" spans="2:2">
+      <c r="B3" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:3">
-      <c r="C4" s="1" t="s">
+    <row r="4" s="19" customFormat="1" spans="3:3">
+      <c r="C4" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:2">
-      <c r="B5" s="1" t="s">
+    <row r="5" s="19" customFormat="1" spans="2:2">
+      <c r="B5" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:3">
-      <c r="C6" s="1" t="s">
+    <row r="6" s="19" customFormat="1" spans="3:3">
+      <c r="C6" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="4:4">
-      <c r="D7" s="1" t="s">
+    <row r="7" s="19" customFormat="1" spans="4:4">
+      <c r="D7" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:3">
-      <c r="C8" s="1" t="s">
+    <row r="8" s="19" customFormat="1" spans="3:3">
+      <c r="C8" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="4:4">
-      <c r="D9" s="1" t="s">
+    <row r="9" s="19" customFormat="1" spans="4:4">
+      <c r="D9" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="19" customFormat="1" spans="3:3">
+      <c r="C10" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="11" s="19" customFormat="1" spans="3:3">
+      <c r="C11" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:4">
-      <c r="D12" s="6" t="s">
+    <row r="12" s="19" customFormat="1" spans="4:4">
+      <c r="D12" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="4:4">
-      <c r="D13" s="1" t="s">
+    <row r="13" s="19" customFormat="1" spans="4:4">
+      <c r="D13" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:3">
-      <c r="C14" s="1" t="s">
+    <row r="14" s="19" customFormat="1" spans="3:3">
+      <c r="C14" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="1" t="s">
+    <row r="15" s="19" customFormat="1" spans="4:4">
+      <c r="D15" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:3">
-      <c r="C16" s="1" t="s">
+    <row r="16" s="19" customFormat="1" spans="3:3">
+      <c r="C16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="4:4">
-      <c r="D17" s="1" t="s">
+    <row r="17" s="19" customFormat="1" spans="4:4">
+      <c r="D17" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="18" s="19" customFormat="1" spans="2:2">
+      <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1" spans="2:2">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:2">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:2">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="2" t="s">
+    <row r="19" s="19" customFormat="1"/>
+    <row r="20" s="19" customFormat="1"/>
+    <row r="21" s="19" customFormat="1"/>
+    <row r="22" s="19" customFormat="1"/>
+    <row r="23" s="19" customFormat="1"/>
+    <row r="24" s="19" customFormat="1"/>
+    <row r="25" s="19" customFormat="1"/>
+    <row r="26" s="19" customFormat="1"/>
+    <row r="27" s="19" customFormat="1"/>
+    <row r="28" s="19" customFormat="1"/>
+    <row r="29" s="19" customFormat="1"/>
+    <row r="30" s="19" customFormat="1"/>
+    <row r="31" s="19" customFormat="1"/>
+    <row r="32" s="19" customFormat="1" spans="2:2">
+      <c r="B32" s="22"/>
+    </row>
+    <row r="33" s="19" customFormat="1" spans="2:2">
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" s="19" customFormat="1" spans="2:3">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" s="19" customFormat="1" spans="2:3">
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" s="19" customFormat="1" spans="2:2">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" s="19" customFormat="1" spans="2:2">
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" s="19" customFormat="1" spans="2:2">
+      <c r="B38" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:2">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:2">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="1" t="s">
+    <row r="39" s="19" customFormat="1" spans="2:2">
+      <c r="B39" s="22"/>
+    </row>
+    <row r="40" s="19" customFormat="1" spans="2:2">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" s="19" customFormat="1" spans="2:2">
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" s="19" customFormat="1" spans="2:2">
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" s="19" customFormat="1" spans="2:2">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" s="19" customFormat="1" spans="2:2">
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" s="19" customFormat="1" spans="2:2">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" s="19" customFormat="1" spans="2:3">
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" s="19" customFormat="1" spans="2:2">
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" s="19" customFormat="1" spans="2:2">
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" s="19" customFormat="1" spans="2:2">
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" s="19" customFormat="1" spans="2:3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="1" t="s">
+    <row r="51" s="19" customFormat="1" spans="2:3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="3:3">
-      <c r="C52" s="1" t="s">
+    <row r="52" s="19" customFormat="1" spans="3:3">
+      <c r="C52" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="3:3">
-      <c r="C53" s="1" t="s">
+    <row r="53" s="19" customFormat="1" spans="3:3">
+      <c r="C53" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:4">
-      <c r="B54" s="1" t="s">
+    <row r="54" s="19" customFormat="1" spans="2:4">
+      <c r="B54" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1" spans="2:2">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:2">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:2">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1" spans="3:3">
-      <c r="C64" s="1" t="s">
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" s="19" customFormat="1"/>
+    <row r="56" s="19" customFormat="1"/>
+    <row r="57" s="19" customFormat="1"/>
+    <row r="58" s="19" customFormat="1" spans="2:2">
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" s="19" customFormat="1" spans="2:2">
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" s="19" customFormat="1" spans="2:2">
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" s="19" customFormat="1"/>
+    <row r="62" s="19" customFormat="1"/>
+    <row r="63" s="19" customFormat="1"/>
+    <row r="64" s="19" customFormat="1" spans="3:3">
+      <c r="C64" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="1" t="s">
+    <row r="65" s="19" customFormat="1" spans="2:2">
+      <c r="B65" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="3:3">
-      <c r="C66" s="1" t="s">
+    <row r="66" s="19" customFormat="1" spans="3:3">
+      <c r="C66" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:14">
-      <c r="B67" s="7"/>
-      <c r="C67" s="10" t="s">
+    <row r="67" s="19" customFormat="1" spans="2:14">
+      <c r="B67" s="22"/>
+      <c r="C67" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="11"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:14">
-      <c r="B68" s="7"/>
-      <c r="C68" s="10" t="s">
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="26"/>
+    </row>
+    <row r="68" s="19" customFormat="1" spans="2:14">
+      <c r="B68" s="22"/>
+      <c r="C68" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="2:14">
-      <c r="B69" s="7"/>
-      <c r="C69" s="10" t="s">
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="26"/>
+    </row>
+    <row r="69" s="19" customFormat="1" spans="2:14">
+      <c r="B69" s="22"/>
+      <c r="C69" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="11"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="2:14">
-      <c r="B70" s="7"/>
-      <c r="C70" s="10" t="s">
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="26"/>
+    </row>
+    <row r="70" s="19" customFormat="1" spans="2:14">
+      <c r="B70" s="22"/>
+      <c r="C70" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="10" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="11"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="2:14">
-      <c r="B71" s="7"/>
-      <c r="C71" s="10" t="s">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="26"/>
+    </row>
+    <row r="71" s="19" customFormat="1" spans="2:14">
+      <c r="B71" s="22"/>
+      <c r="C71" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="11"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="2:14">
-      <c r="B72" s="7"/>
-      <c r="C72" s="10" t="s">
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="26"/>
+    </row>
+    <row r="72" s="19" customFormat="1" spans="2:14">
+      <c r="B72" s="22"/>
+      <c r="C72" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="10" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="3:3">
-      <c r="C73" s="1" t="s">
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="26"/>
+    </row>
+    <row r="73" s="19" customFormat="1" spans="3:3">
+      <c r="C73" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="2" customFormat="1"/>
-    <row r="80" s="2" customFormat="1"/>
-    <row r="81" s="2" customFormat="1"/>
-    <row r="82" s="2" customFormat="1" spans="2:2">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="2:2">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="2:2">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="2:2">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" s="2" customFormat="1" spans="2:2">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" s="2" customFormat="1" spans="2:2">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" s="2" customFormat="1" spans="2:2">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" s="2" customFormat="1" spans="2:2">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1" spans="4:4">
-      <c r="D97" s="1" t="s">
+    <row r="74" s="19" customFormat="1"/>
+    <row r="75" s="19" customFormat="1"/>
+    <row r="76" s="19" customFormat="1"/>
+    <row r="77" s="19" customFormat="1"/>
+    <row r="78" s="19" customFormat="1"/>
+    <row r="79" s="20" customFormat="1"/>
+    <row r="80" s="20" customFormat="1"/>
+    <row r="81" s="20" customFormat="1"/>
+    <row r="82" s="20" customFormat="1" spans="2:2">
+      <c r="B82" s="28"/>
+    </row>
+    <row r="83" s="20" customFormat="1" spans="2:2">
+      <c r="B83" s="28"/>
+    </row>
+    <row r="84" s="20" customFormat="1" spans="2:2">
+      <c r="B84" s="28"/>
+    </row>
+    <row r="85" s="20" customFormat="1" spans="2:2">
+      <c r="B85" s="28"/>
+    </row>
+    <row r="86" s="20" customFormat="1" spans="2:2">
+      <c r="B86" s="28"/>
+    </row>
+    <row r="87" s="20" customFormat="1" spans="2:2">
+      <c r="B87" s="28"/>
+    </row>
+    <row r="88" s="20" customFormat="1" spans="2:2">
+      <c r="B88" s="28"/>
+    </row>
+    <row r="89" s="20" customFormat="1" spans="2:2">
+      <c r="B89" s="28"/>
+    </row>
+    <row r="90" s="19" customFormat="1"/>
+    <row r="91" s="19" customFormat="1"/>
+    <row r="92" s="19" customFormat="1"/>
+    <row r="93" s="19" customFormat="1"/>
+    <row r="94" s="19" customFormat="1"/>
+    <row r="95" s="19" customFormat="1"/>
+    <row r="96" s="19" customFormat="1"/>
+    <row r="97" s="19" customFormat="1" spans="4:4">
+      <c r="D97" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" spans="4:4">
-      <c r="D98" s="1" t="s">
+    <row r="98" s="19" customFormat="1" spans="4:4">
+      <c r="D98" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="4:4">
-      <c r="D99" s="1" t="s">
+    <row r="99" s="19" customFormat="1" spans="4:4">
+      <c r="D99" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" spans="4:4">
-      <c r="D100" s="1" t="s">
+    <row r="100" s="19" customFormat="1" spans="4:4">
+      <c r="D100" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" spans="4:4">
-      <c r="D101" s="1" t="s">
+    <row r="101" s="19" customFormat="1" spans="4:4">
+      <c r="D101" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" spans="4:4">
-      <c r="D102" s="1" t="s">
+    <row r="102" s="19" customFormat="1" spans="4:4">
+      <c r="D102" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" spans="4:4">
-      <c r="D103" s="1" t="s">
+    <row r="103" s="19" customFormat="1" spans="4:4">
+      <c r="D103" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" spans="4:4">
-      <c r="D104" s="1" t="s">
+    <row r="104" s="19" customFormat="1" spans="4:4">
+      <c r="D104" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" spans="4:4">
-      <c r="D105" s="1" t="s">
+    <row r="105" s="19" customFormat="1" spans="4:4">
+      <c r="D105" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="2:2">
-      <c r="B106" s="1" t="s">
+    <row r="106" s="19" customFormat="1" spans="2:2">
+      <c r="B106" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" spans="3:3">
-      <c r="C107" s="1" t="s">
+    <row r="107" s="19" customFormat="1" spans="3:3">
+      <c r="C107" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" spans="3:3">
-      <c r="C108" s="1" t="s">
+    <row r="108" s="19" customFormat="1" spans="3:3">
+      <c r="C108" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" spans="2:2">
-      <c r="B109" s="1" t="s">
+    <row r="109" s="19" customFormat="1" spans="2:2">
+      <c r="B109" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" spans="3:3">
-      <c r="C110" s="1" t="s">
+    <row r="110" s="19" customFormat="1" spans="3:3">
+      <c r="C110" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" spans="2:2">
-      <c r="B111" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="1" customFormat="1"/>
-    <row r="122" s="1" customFormat="1"/>
-    <row r="123" s="1" customFormat="1"/>
-    <row r="124" s="1" customFormat="1"/>
-    <row r="125" s="1" customFormat="1"/>
-    <row r="126" s="1" customFormat="1"/>
-    <row r="127" s="1" customFormat="1"/>
-    <row r="128" s="1" customFormat="1"/>
-    <row r="129" s="1" customFormat="1"/>
-    <row r="130" s="1" customFormat="1"/>
-    <row r="131" s="1" customFormat="1"/>
-    <row r="132" s="1" customFormat="1"/>
-    <row r="133" s="1" customFormat="1"/>
-    <row r="134" s="1" customFormat="1"/>
-    <row r="135" s="1" customFormat="1"/>
-    <row r="136" s="1" customFormat="1"/>
-    <row r="137" s="1" customFormat="1"/>
-    <row r="138" s="1" customFormat="1"/>
-    <row r="139" s="1" customFormat="1"/>
-    <row r="140" s="1" customFormat="1"/>
-    <row r="141" s="1" customFormat="1"/>
-    <row r="154" s="3" customFormat="1" spans="1:1">
-      <c r="A154" s="3" t="s">
+    <row r="111" s="19" customFormat="1" spans="2:2">
+      <c r="B111"/>
+    </row>
+    <row r="112" s="19" customFormat="1"/>
+    <row r="113" s="19" customFormat="1"/>
+    <row r="114" s="19" customFormat="1"/>
+    <row r="115" s="19" customFormat="1"/>
+    <row r="116" s="19" customFormat="1"/>
+    <row r="117" s="19" customFormat="1"/>
+    <row r="118" s="19" customFormat="1"/>
+    <row r="119" s="19" customFormat="1"/>
+    <row r="120" s="19" customFormat="1"/>
+    <row r="121" s="19" customFormat="1"/>
+    <row r="122" s="19" customFormat="1"/>
+    <row r="123" s="19" customFormat="1"/>
+    <row r="124" s="19" customFormat="1"/>
+    <row r="125" s="19" customFormat="1"/>
+    <row r="126" s="19" customFormat="1"/>
+    <row r="127" s="19" customFormat="1"/>
+    <row r="128" s="19" customFormat="1"/>
+    <row r="129" s="19" customFormat="1"/>
+    <row r="130" s="19" customFormat="1"/>
+    <row r="131" s="19" customFormat="1"/>
+    <row r="132" s="19" customFormat="1"/>
+    <row r="133" s="19" customFormat="1"/>
+    <row r="134" s="19" customFormat="1"/>
+    <row r="135" s="19" customFormat="1"/>
+    <row r="136" s="19" customFormat="1"/>
+    <row r="137" s="19" customFormat="1"/>
+    <row r="138" s="19" customFormat="1"/>
+    <row r="139" s="19" customFormat="1"/>
+    <row r="140" s="19" customFormat="1"/>
+    <row r="141" s="19" customFormat="1"/>
+    <row r="142" s="19" customFormat="1"/>
+    <row r="143" s="19" customFormat="1"/>
+    <row r="144" s="19" customFormat="1"/>
+    <row r="145" s="19" customFormat="1"/>
+    <row r="146" s="19" customFormat="1"/>
+    <row r="147" s="19" customFormat="1"/>
+    <row r="148" s="19" customFormat="1"/>
+    <row r="149" s="19" customFormat="1"/>
+    <row r="150" s="19" customFormat="1"/>
+    <row r="151" s="19" customFormat="1"/>
+    <row r="152" s="19" customFormat="1"/>
+    <row r="153" s="19" customFormat="1"/>
+    <row r="154" s="2" customFormat="1" spans="1:1">
+      <c r="A154" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="155" s="3" customFormat="1" spans="1:1">
-      <c r="A155" s="3" t="s">
+    <row r="155" s="2" customFormat="1" spans="1:1">
+      <c r="A155" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="156" s="3" customFormat="1"/>
-    <row r="157" s="3" customFormat="1" spans="1:1">
-      <c r="A157" s="3" t="s">
+    <row r="156" s="2" customFormat="1"/>
+    <row r="157" s="2" customFormat="1" spans="1:1">
+      <c r="A157" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:1">
-      <c r="A158" s="4" t="s">
+    <row r="158" s="3" customFormat="1" spans="1:1">
+      <c r="A158" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="159" s="4" customFormat="1" spans="1:1">
-      <c r="A159" s="4" t="s">
+    <row r="159" s="3" customFormat="1" spans="1:1">
+      <c r="A159" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4864,4 +5535,773 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE194"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" customFormat="1" ht="14.25" spans="1:27">
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:2">
+      <c r="B5" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:2">
+      <c r="B6" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:2">
+      <c r="B7" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:2">
+      <c r="B8" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:2">
+      <c r="B9" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:3">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:2">
+      <c r="B33" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:2">
+      <c r="B34" s="15"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:2">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:2">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="3:3">
+      <c r="C62" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="3:3">
+      <c r="C63" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="3:3">
+      <c r="C64" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="3:3">
+      <c r="C66" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="3:3">
+      <c r="C67" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="3:3">
+      <c r="C68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:2">
+      <c r="B69" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="3:3">
+      <c r="C70" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:3">
+      <c r="B71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="3:3">
+      <c r="C72" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:3">
+      <c r="B73" s="7"/>
+      <c r="C73" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:3">
+      <c r="B75" s="7"/>
+      <c r="C75" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:3">
+      <c r="B77" s="7"/>
+      <c r="C77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:3">
+      <c r="B78" s="7"/>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:2">
+      <c r="B86" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="3:3">
+      <c r="C88" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:3">
+      <c r="B89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="3:3">
+      <c r="C90" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:3">
+      <c r="A91" s="1"/>
+      <c r="C91" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="3:3">
+      <c r="C92" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="3:3">
+      <c r="C93" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="2:2">
+      <c r="B94" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="3:3">
+      <c r="C95" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="3:3">
+      <c r="C96" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="2:2">
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="2:2">
+      <c r="B98" s="13"/>
+    </row>
+    <row r="99" s="4" customFormat="1" spans="2:2">
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="2:2">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="2:2">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="2:2">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="2:2">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="2:2">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="2:2">
+      <c r="B105" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="2:3">
+      <c r="B106" s="13"/>
+      <c r="C106" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="2:3">
+      <c r="B107" s="13"/>
+      <c r="C107" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="2:3">
+      <c r="B108" s="7"/>
+      <c r="C108" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" s="4" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B109" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" s="4" customFormat="1" spans="2:2">
+      <c r="B110" s="13"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="2:2">
+      <c r="B129" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" s="2" customFormat="1" spans="1:1">
+      <c r="A189" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" s="2" customFormat="1"/>
+    <row r="192" s="2" customFormat="1" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:1">
+      <c r="A193" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:1">
+      <c r="A194" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE202"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:27">
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:3">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:2">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:2">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:2">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:2">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:2">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:2">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:2">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:2">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:2">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:2">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:2">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:2">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:2">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:2">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:2">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1"/>
+    <row r="83" s="2" customFormat="1" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:2">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:2">
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" customFormat="1" spans="2:3">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:2">
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="3:3">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="3:3">
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" s="4" customFormat="1"/>
+    <row r="93" s="4" customFormat="1"/>
+    <row r="94" s="4" customFormat="1"/>
+    <row r="95" s="4" customFormat="1"/>
+    <row r="96" s="4" customFormat="1"/>
+    <row r="97" s="4" customFormat="1"/>
+    <row r="98" s="4" customFormat="1"/>
+    <row r="99" s="4" customFormat="1" spans="2:2">
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="2:2">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="2:2">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="2:2">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="2:2">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="2:2">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="2:2">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="2:2">
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="2:2">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="2:3">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" s="4" customFormat="1" spans="2:2">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110" s="4" customFormat="1" spans="2:2">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" s="4" customFormat="1" spans="2:2">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" s="4" customFormat="1" spans="2:2">
+      <c r="B112" s="13"/>
+    </row>
+    <row r="197" s="2" customFormat="1"/>
+    <row r="198" s="2" customFormat="1"/>
+    <row r="199" s="2" customFormat="1"/>
+    <row r="200" s="2" customFormat="1"/>
+    <row r="201" s="3" customFormat="1"/>
+    <row r="202" s="3" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/STM32（六）DMA.xlsx
+++ b/STM32（六）DMA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="218">
   <si>
     <t>STM32</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">为适应“减少线束的数量”、“通过多个 </t>
     </r>
     <r>
@@ -606,6 +612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1986 </t>
     </r>
     <r>
@@ -695,6 +707,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>下图是车载网络的构想示意图。</t>
     </r>
     <r>
@@ -739,6 +757,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">CAN </t>
     </r>
     <r>
@@ -759,6 +783,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>最先访问总线的单元可获得发送权（</t>
     </r>
     <r>
@@ -800,6 +830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">多个单元同时开始发送时，发送高优先级 </t>
     </r>
     <r>
@@ -932,6 +968,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>CAN</t>
     </r>
     <r>
@@ -952,7 +995,123 @@
     <t>不想写了，跟视频一样</t>
   </si>
   <si>
-    <t>该学can第二集了</t>
+    <t>结构框图：</t>
+  </si>
+  <si>
+    <t>1号：</t>
+  </si>
+  <si>
+    <t>can的控制器的内核</t>
+  </si>
+  <si>
+    <t>包含了各种控制\状态寄存器，这里主要介绍主控制器和位时序寄存器</t>
+  </si>
+  <si>
+    <t>主控制器：管理can的工作模式</t>
+  </si>
+  <si>
+    <t>位时序寄存器：配置测试模式，波特率等各种参数的</t>
+  </si>
+  <si>
+    <t>测试模式分位正常模式，静默模式，环回模式，环回静默模式</t>
+  </si>
+  <si>
+    <t>静默模式：</t>
+  </si>
+  <si>
+    <t>通过对CAN_BTR寄存器的SILM位置’1’，来选择静默模式</t>
+  </si>
+  <si>
+    <t>在静默模式下，bxCAN可以正常地接收数据帧和远程帧，但只能发出隐性位，而不能真正发送报文</t>
+  </si>
+  <si>
+    <t>如果bxCAN需要发出显性位(确认位、过载标志、主动错误标志)，那么这样的显性位在内部被接回来从而可以被CAN内核检测到，同时CAN总线不会受到影响而仍然维持在隐性位状态。</t>
+  </si>
+  <si>
+    <t>因此，静默模式通常用于分析CAN总线的活动，而不会对总线造成影响－显性位(确认位、错误帧)不会真正发送到总线上</t>
+  </si>
+  <si>
+    <t>环回模式：</t>
+  </si>
+  <si>
+    <t>通过对CAN_BTR寄存器的LBKM位置’1’，来选择环回模式</t>
+  </si>
+  <si>
+    <t>在环回模式下，bxCAN把发送的报文当作接收的报文并保存(如果可以通过接收过滤)在接收邮箱里</t>
+  </si>
+  <si>
+    <t>环回模式可用于自测试。为了避免外部的影响，在环回模式下CAN内核忽略确认错误(在数据/远程帧的确认位时刻，不检测是否有显性位)。</t>
+  </si>
+  <si>
+    <t>在环回模式下，bxCAN在内部把Tx输出回馈到Rx输入上，而完全忽略CANRX引脚的实际状态。发送的报文可以在CANTX引脚上检测到</t>
+  </si>
+  <si>
+    <t>环回静默模式：</t>
+  </si>
+  <si>
+    <t>通过对CAN_BTR寄存器的LBKM和SILM位同时置’1’，可以选择环回静默模式</t>
+  </si>
+  <si>
+    <t>该模式可用于“热自测试”，即可以像环回模式那样测试bxCAN，但却不会影响CANTX和CANRX所连接的整个CAN系统。</t>
+  </si>
+  <si>
+    <r>
+      <t>在环回静默模式下，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CANRX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引脚与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总线断开，同时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CANTX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引脚被驱动到隐性位状态</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -960,12 +1119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,16 +1140,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF23263B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF23263B"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1001,18 +1160,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1058,7 +1217,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,15 +1264,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,6 +1301,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1099,26 +1317,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1148,22 +1350,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,26 +1364,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.95"/>
@@ -1251,7 +1422,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,115 +1482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +1500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,25 +1512,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,6 +1591,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,6 +1668,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1508,6 +1694,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,21 +1736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1559,26 +1750,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1587,10 +1758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1599,137 +1770,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,25 +1916,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1793,16 +1964,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,6 +1986,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3199,7 +3373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="1666240"/>
+          <a:off x="371475" y="1656715"/>
           <a:ext cx="6566535" cy="3631565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3241,7 +3415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="5781675"/>
+          <a:off x="371475" y="5772150"/>
           <a:ext cx="6574790" cy="4346575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3283,7 +3457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="16595725"/>
+          <a:off x="742950" y="16586200"/>
           <a:ext cx="5894705" cy="1286510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3325,7 +3499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="18821400"/>
+          <a:off x="742950" y="18811875"/>
           <a:ext cx="3945255" cy="3249295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3367,8 +3541,97 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737870" y="22272625"/>
+          <a:off x="737870" y="22263100"/>
           <a:ext cx="3968750" cy="3656965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="457200"/>
+          <a:ext cx="4552315" cy="4593590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="6456045"/>
+          <a:ext cx="1593850" cy="1345565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3683,15 +3946,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -3703,7 +3966,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -3712,7 +3975,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -3721,7 +3984,7 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3806,7 +4069,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="3:3">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3896,37 +4159,37 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:3">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:3">
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:3">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:3">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
@@ -3935,115 +4198,115 @@
       <c r="B43"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:3">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:2">
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:2">
-      <c r="B60" s="7"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="7"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="7"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="7"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="7"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="7"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:1">
       <c r="A80" s="2" t="s">
@@ -4072,23 +4335,23 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:2">
-      <c r="B86" s="7"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:2">
-      <c r="B87" s="7"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" customFormat="1" spans="2:3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:2">
-      <c r="B89" s="7"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="3:3">
-      <c r="C90" s="8"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="3:3">
-      <c r="C91" s="8"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" s="4" customFormat="1"/>
     <row r="93" s="4" customFormat="1"/>
@@ -4132,10 +4395,10 @@
       <c r="B109" s="13"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="2:2">
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="2:2">
-      <c r="B111" s="7"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" s="4" customFormat="1" spans="2:2">
       <c r="B112" s="13"/>
@@ -4167,15 +4430,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4187,7 +4450,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -4196,7 +4459,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -4205,7 +4468,7 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4215,74 +4478,74 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:1">
       <c r="A57" s="2" t="s">
@@ -4311,52 +4574,52 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="7"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="7"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="7"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="7"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="7"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="80" s="4" customFormat="1"/>
     <row r="81" s="4" customFormat="1"/>
@@ -4400,10 +4663,10 @@
       <c r="B97" s="13"/>
     </row>
     <row r="98" s="4" customFormat="1" spans="2:2">
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="2:2">
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="2:2">
       <c r="B100" s="13"/>
@@ -4425,8 +4688,8 @@
   <sheetPr/>
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A102" sqref="$A102:$XFD107"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4435,15 +4698,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4455,7 +4718,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -4464,7 +4727,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -4473,7 +4736,7 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4508,12 +4771,12 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:3">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:3">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4558,74 +4821,74 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:2">
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:4">
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="D40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="4:4">
       <c r="D56" s="1" t="s">
@@ -4638,7 +4901,7 @@
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="4:4">
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4658,31 +4921,31 @@
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="83" s="4" customFormat="1"/>
     <row r="84" s="4" customFormat="1"/>
@@ -4759,15 +5022,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4779,7 +5042,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -4788,7 +5051,7 @@
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -4797,113 +5060,113 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:3">
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:3">
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:2">
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:2">
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:2">
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:2">
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="4:4">
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="83" s="4" customFormat="1"/>
     <row r="84" s="4" customFormat="1"/>
@@ -4967,10 +5230,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE159"/>
+  <dimension ref="A1:AE158"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A111" sqref="$A111:$XFD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5459,9 +5722,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" s="19" customFormat="1" spans="2:2">
-      <c r="B111"/>
-    </row>
+    <row r="111" s="19" customFormat="1"/>
     <row r="112" s="19" customFormat="1"/>
     <row r="113" s="19" customFormat="1"/>
     <row r="114" s="19" customFormat="1"/>
@@ -5503,30 +5764,29 @@
     <row r="150" s="19" customFormat="1"/>
     <row r="151" s="19" customFormat="1"/>
     <row r="152" s="19" customFormat="1"/>
-    <row r="153" s="19" customFormat="1"/>
+    <row r="153" s="2" customFormat="1" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="154" s="2" customFormat="1" spans="1:1">
       <c r="A154" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" s="2" customFormat="1" spans="1:1">
-      <c r="A155" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1"/>
-    <row r="157" s="2" customFormat="1" spans="1:1">
-      <c r="A157" s="2" t="s">
+    <row r="155" s="2" customFormat="1"/>
+    <row r="156" s="2" customFormat="1" spans="1:1">
+      <c r="A156" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:1">
+      <c r="A157" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="158" s="3" customFormat="1" spans="1:1">
       <c r="A158" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" s="3" customFormat="1" spans="1:1">
-      <c r="A159" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5542,7 +5802,7 @@
   <sheetPr/>
   <dimension ref="A1:AE194"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
@@ -5552,15 +5812,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -5572,9 +5832,9 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
-    </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:27">
+      <c r="AE1" s="7"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
@@ -5630,7 +5890,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:1">
       <c r="A32" s="1" t="s">
@@ -5646,83 +5906,83 @@
       <c r="B34" s="15"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
       <c r="B43"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:3">
-      <c r="B44" s="9"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:2">
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:2">
       <c r="B61" s="1" t="s">
@@ -5765,7 +6025,7 @@
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5786,7 +6046,7 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:3">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
         <v>166</v>
       </c>
@@ -5797,7 +6057,7 @@
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:3">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="1" t="s">
         <v>168</v>
       </c>
@@ -5808,13 +6068,13 @@
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:3">
-      <c r="B77" s="7"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:3">
-      <c r="B78" s="7"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
         <v>171</v>
       </c>
@@ -5897,7 +6157,7 @@
       </c>
     </row>
     <row r="94" s="4" customFormat="1" spans="2:2">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5936,7 +6196,7 @@
       <c r="B104" s="13"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="2:2">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5953,7 +6213,7 @@
       </c>
     </row>
     <row r="108" s="4" customFormat="1" spans="2:3">
-      <c r="B108" s="7"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="15" t="s">
         <v>193</v>
       </c>
@@ -5972,7 +6232,7 @@
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6014,8 +6274,8 @@
   <sheetPr/>
   <dimension ref="A1:AE202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -6024,15 +6284,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -6044,16 +6304,16 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:27">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>197</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -6062,142 +6322,215 @@
       <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:4">
+      <c r="B37" s="6"/>
+      <c r="D37" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:2">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:4">
+      <c r="B39" s="6"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:4">
+      <c r="B40" s="6"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
       <c r="B43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:3">
-      <c r="B44" s="9"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:2">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:2">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:2">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:2">
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:2">
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:2">
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:2">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:2">
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:2">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:2">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="2:2">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="2:2">
-      <c r="B58" s="7"/>
+    <row r="44" s="1" customFormat="1" spans="2:4">
+      <c r="B44" s="8"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:4">
+      <c r="B45" s="9"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:5">
+      <c r="B46" s="6"/>
+      <c r="E46" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:5">
+      <c r="B47" s="6"/>
+      <c r="E47" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="6"/>
+      <c r="E48" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="6"/>
+      <c r="E49" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:4">
+      <c r="B50" s="6"/>
+      <c r="D50" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="6"/>
+      <c r="E51" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="6"/>
+      <c r="E52" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="6"/>
+      <c r="E53" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="B54" s="6"/>
+      <c r="E54" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:4">
+      <c r="B55" s="6"/>
+      <c r="D55" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:5">
+      <c r="B56" s="6"/>
+      <c r="E56" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:5">
+      <c r="B57" s="6"/>
+      <c r="E57" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:5">
+      <c r="B58" s="6"/>
+      <c r="E58" s="11" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:2">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:2">
-      <c r="B60" s="7"/>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="6"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:2">
-      <c r="B65" s="7"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="7"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:2">
-      <c r="B69" s="7"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:2">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:2">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="7"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:2">
-      <c r="B78" s="7"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:1">
       <c r="A80" s="2" t="s">
@@ -6226,23 +6559,23 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:2">
-      <c r="B86" s="7"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:2">
-      <c r="B87" s="7"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" customFormat="1" spans="2:3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:2">
-      <c r="B89" s="7"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="3:3">
-      <c r="C90" s="8"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="3:3">
-      <c r="C91" s="8"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" s="4" customFormat="1"/>
     <row r="93" s="4" customFormat="1"/>
@@ -6286,10 +6619,10 @@
       <c r="B109" s="13"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="2:2">
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="2:2">
-      <c r="B111" s="7"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" s="4" customFormat="1" spans="2:2">
       <c r="B112" s="13"/>
@@ -6303,5 +6636,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>